--- a/data/924/NBS/Total Retail Sales of Consumer Goods.xlsx
+++ b/data/924/NBS/Total Retail Sales of Consumer Goods.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RC9"/>
+  <dimension ref="A1:RD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,2350 +374,2355 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar 2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Feb 2022</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Jan 2022</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Dec 2021</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov 2021</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Oct 2021</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Sep 2021</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Aug 2021</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Jul 2021</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Jun 2021</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>May 2021</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Apr 2021</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Mar 2021</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Feb 2021</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Jan 2021</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Dec 2020</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Nov 2020</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Oct 2020</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Sep 2020</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Aug 2020</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Jul 2020</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>June 2020</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>May 2020</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Apr 2020</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Mar 2020</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Feb 2020</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Jan 2020</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Dec 2019</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Nov 2019</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Oct 2019</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Sep 2019</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Aug 2019</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Jul 2019</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Jun 2019</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>May 2019</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Apr 2019</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Mar 2019</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Feb 2019</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Jan 2019</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Dec 2018</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Nov 2018</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Oct 2018</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Sep 2018</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Aug 2018</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Jul 2018</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Jun 2018</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>May 2018</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Apr 2018</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Mar 2018</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Feb 2018</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2018</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Dec 2017</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Nov 2017</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Oct 2017</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Sep 2017</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Aug 2017</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Jul 2017</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Jun 2017</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>May 2017</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Apr 2017</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Mar 2017</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Feb 2017</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Jan 2017</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Dec 2016</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Nov 2016</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Oct 2016</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Sep 2016</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Aug 2016</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Jul 2016</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>Jun 2016</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>May 2016</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Apr 2016</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Mar 2016</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>Feb 2016</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>Jan 2016</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>Dec 2015</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>Nov 2015</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>Oct 2015</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>Sep 2015</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>Aug 2015</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>Jul 2015</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>Jun 2015</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>May 2015</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>Apr 2015</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>Mar 2015</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>Feb 2015</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2015</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>Dec 2014</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>Nov 2014</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>Oct 2014</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>Sep 2014</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>Aug 2014</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>Jul 2014</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>Jun 2014</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>May 2014</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>Apr 2014</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>Mar 2014</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>Feb 2014</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>Jan 2014</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>Dec 2013</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>Nov 2013</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>Oct 2013</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>Sep 2013</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>Aug 2013</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>Jul 2013</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>Jun 2013</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>May 2013</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>Apr 2013</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>Mar 2013</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>Feb 2013</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>Jan 2013</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>Dec 2012</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>Nov 2012</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>Oct2012</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>Sep 2012</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>Aug 2012</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>Jul 2012</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>Jun2012</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>May 2012</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>Apr 2012</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>Mar 2012</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>Feb 2012</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>Jan 2012</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>Dec 2011</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>Nov 2011</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>Oct 2011</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>Sep 2011</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>Aug 2011</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>Jul 2011</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>Jun 2011</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>May 2011</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>Apr 2011</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>Mar 2011</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>Feb 2011</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>Jan 2011</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>Dec 2010</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>Nov 2010</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>Oct 2010</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>Sep 2010</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>Aug 2010</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>Jul 2010</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>Jun 2010</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>May 2010</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>Apr 2010</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>Mar 2010</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>Feb 2010</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>Jan 2010</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>Dec 2009</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>Nov 2009</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>Oct 2009</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>Sep 2009</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>Aug 2009</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>Jul 2009</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>Jun 2009</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>May 2009</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>Apr 2009</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>Mar 2009</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>Feb 2009</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>Jan 2009</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>Dec 2008</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>Nov 2008</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>Oct 2008</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>Sep 2008</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>Aug 2008</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>Jul 2008</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>Jun 2008</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>May 2008</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>Apr 2008</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>Mar 2008</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>Feb 2008</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>Jan 2008</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>Dec 2007</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>Nov 2007</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>Oct 2007</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>Sep 2007</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>Aug 2007</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>Jul 2007</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>Jun 2007</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>May 2007</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>Apr 2007</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>Mar 2007</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>Feb 2007</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>Jan 2007</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>Dec 2006</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>Nov 2006</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>Oct 2006</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>Sep 2006</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>Aug 2006</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>Jul 2006</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>Jun 2006</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>May 2006</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>Apr 2006</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>Mar 2006</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>Feb 2006</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>Jan 2006</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>Dec 2005</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>Nov 2005</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>Oct 2005</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>Sep 2005</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>Aug 2005</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>Jul 2005</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>Jun 2005</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>May 2005</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>Apr 2005</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>Mar 2005</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>Feb 2005</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2005</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>Dec 2004</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>Nov 2004</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>Oct 2004</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>Sep 2004</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>Aug 2004</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>Jul 2004</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>Jun 2004</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>May 2004</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>Apr 2004</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>Mar 2004</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>Feb 2004</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>Jan 2004</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>Dec 2003</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>Nov 2003</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>Oct 2003</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>Sep 2003</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>Aug 2003</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>Jul 2003</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>Jun 2003</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>May 2003</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>Apr 2003</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>Mar 2003</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>Feb 2003</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>Jan 2003</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>Dec 2002</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>Nov 2002</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>Oct 2002</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>Sep 2002</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>Aug 2002</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>Jul 2002</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>Jun 2002</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>May 2002</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>Apr 2002</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>Mar 2002</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>Feb 2002</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>Jan 2002</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>Dec 2001</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>Nov 2001</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>Oct 2001</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>Sep 2001</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>Aug 2001</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>Jul 2001</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>Jun 2001</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>May 2001</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>Apr 2001</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>Mar 2001</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>Feb 2001</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>Jan 2001</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>Dec 2000</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>Nov 2000</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>Oct 2000</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>Sep 2000</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>Aug 2000</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>Jul 2000</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>Jun 2000</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>May 2000</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>Apr 2000</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>Mar 2000</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>Feb 2000</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>Jan 2000</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>Dec 1999</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>Nov 1999</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>Oct 1999</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>Sep 1999</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>Aug 1999</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>Jul 1999</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>Jun 1999</t>
         </is>
       </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>May 1999</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>Apr 1999</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>Mar 1999</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>Feb 1999</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>Jan 1999</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>Dec 1998</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>Nov 1998</t>
         </is>
       </c>
-      <c r="JV1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
         <is>
           <t>Oct 1998</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>Sep 1998</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>Aug 1998</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
         <is>
           <t>Jul 1998</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>Jun 1998</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
         <is>
           <t>May 1998</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
+      <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>Apr 1998</t>
         </is>
       </c>
-      <c r="KC1" s="1" t="inlineStr">
+      <c r="KD1" s="1" t="inlineStr">
         <is>
           <t>Mar 1998</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>Feb 1998</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>Jan 1998</t>
         </is>
       </c>
-      <c r="KF1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
         <is>
           <t>Dec 1997</t>
         </is>
       </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>Nov 1997</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
+      <c r="KI1" s="1" t="inlineStr">
         <is>
           <t>Oct 1997</t>
         </is>
       </c>
-      <c r="KI1" s="1" t="inlineStr">
+      <c r="KJ1" s="1" t="inlineStr">
         <is>
           <t>Sep 1997</t>
         </is>
       </c>
-      <c r="KJ1" s="1" t="inlineStr">
+      <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>Aug 1997</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
+      <c r="KL1" s="1" t="inlineStr">
         <is>
           <t>Jul 1997</t>
         </is>
       </c>
-      <c r="KL1" s="1" t="inlineStr">
+      <c r="KM1" s="1" t="inlineStr">
         <is>
           <t>Jun 1997</t>
         </is>
       </c>
-      <c r="KM1" s="1" t="inlineStr">
+      <c r="KN1" s="1" t="inlineStr">
         <is>
           <t>May 1997</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>Apr 1997</t>
         </is>
       </c>
-      <c r="KO1" s="1" t="inlineStr">
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>Mar 1997</t>
         </is>
       </c>
-      <c r="KP1" s="1" t="inlineStr">
+      <c r="KQ1" s="1" t="inlineStr">
         <is>
           <t>Feb 1997</t>
         </is>
       </c>
-      <c r="KQ1" s="1" t="inlineStr">
+      <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>Jan 1997</t>
         </is>
       </c>
-      <c r="KR1" s="1" t="inlineStr">
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>Dec 1996</t>
         </is>
       </c>
-      <c r="KS1" s="1" t="inlineStr">
+      <c r="KT1" s="1" t="inlineStr">
         <is>
           <t>Nov 1996</t>
         </is>
       </c>
-      <c r="KT1" s="1" t="inlineStr">
+      <c r="KU1" s="1" t="inlineStr">
         <is>
           <t>Oct 1996</t>
         </is>
       </c>
-      <c r="KU1" s="1" t="inlineStr">
+      <c r="KV1" s="1" t="inlineStr">
         <is>
           <t>Sep 1996</t>
         </is>
       </c>
-      <c r="KV1" s="1" t="inlineStr">
+      <c r="KW1" s="1" t="inlineStr">
         <is>
           <t>Aug 1996</t>
         </is>
       </c>
-      <c r="KW1" s="1" t="inlineStr">
+      <c r="KX1" s="1" t="inlineStr">
         <is>
           <t>Jul 1996</t>
         </is>
       </c>
-      <c r="KX1" s="1" t="inlineStr">
+      <c r="KY1" s="1" t="inlineStr">
         <is>
           <t>Jun 1996</t>
         </is>
       </c>
-      <c r="KY1" s="1" t="inlineStr">
+      <c r="KZ1" s="1" t="inlineStr">
         <is>
           <t>May 1996</t>
         </is>
       </c>
-      <c r="KZ1" s="1" t="inlineStr">
+      <c r="LA1" s="1" t="inlineStr">
         <is>
           <t>Apr 1996</t>
         </is>
       </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="LB1" s="1" t="inlineStr">
         <is>
           <t>Mar 1996</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
+      <c r="LC1" s="1" t="inlineStr">
         <is>
           <t>Feb 1996</t>
         </is>
       </c>
-      <c r="LC1" s="1" t="inlineStr">
+      <c r="LD1" s="1" t="inlineStr">
         <is>
           <t>Jan 1996</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
+      <c r="LE1" s="1" t="inlineStr">
         <is>
           <t>Dec 1995</t>
         </is>
       </c>
-      <c r="LE1" s="1" t="inlineStr">
+      <c r="LF1" s="1" t="inlineStr">
         <is>
           <t>Nov 1995</t>
         </is>
       </c>
-      <c r="LF1" s="1" t="inlineStr">
+      <c r="LG1" s="1" t="inlineStr">
         <is>
           <t>Oct 1995</t>
         </is>
       </c>
-      <c r="LG1" s="1" t="inlineStr">
+      <c r="LH1" s="1" t="inlineStr">
         <is>
           <t>Sep 1995</t>
         </is>
       </c>
-      <c r="LH1" s="1" t="inlineStr">
+      <c r="LI1" s="1" t="inlineStr">
         <is>
           <t>Aug 1995</t>
         </is>
       </c>
-      <c r="LI1" s="1" t="inlineStr">
+      <c r="LJ1" s="1" t="inlineStr">
         <is>
           <t>Jul 1995</t>
         </is>
       </c>
-      <c r="LJ1" s="1" t="inlineStr">
+      <c r="LK1" s="1" t="inlineStr">
         <is>
           <t>Jun 1995</t>
         </is>
       </c>
-      <c r="LK1" s="1" t="inlineStr">
+      <c r="LL1" s="1" t="inlineStr">
         <is>
           <t>May 1995</t>
         </is>
       </c>
-      <c r="LL1" s="1" t="inlineStr">
+      <c r="LM1" s="1" t="inlineStr">
         <is>
           <t>Apr 1995</t>
         </is>
       </c>
-      <c r="LM1" s="1" t="inlineStr">
+      <c r="LN1" s="1" t="inlineStr">
         <is>
           <t>Mar 1995</t>
         </is>
       </c>
-      <c r="LN1" s="1" t="inlineStr">
+      <c r="LO1" s="1" t="inlineStr">
         <is>
           <t>Feb 1995</t>
         </is>
       </c>
-      <c r="LO1" s="1" t="inlineStr">
+      <c r="LP1" s="1" t="inlineStr">
         <is>
           <t>Jan 1995</t>
         </is>
       </c>
-      <c r="LP1" s="1" t="inlineStr">
+      <c r="LQ1" s="1" t="inlineStr">
         <is>
           <t>Dec 1994</t>
         </is>
       </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="LR1" s="1" t="inlineStr">
         <is>
           <t>Nov 1994</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
+      <c r="LS1" s="1" t="inlineStr">
         <is>
           <t>Oct 1994</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
+      <c r="LT1" s="1" t="inlineStr">
         <is>
           <t>Sep 1994</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
         <is>
           <t>Aug 1994</t>
         </is>
       </c>
-      <c r="LU1" s="1" t="inlineStr">
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>Jul 1994</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
         <is>
           <t>Jun 1994</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="LX1" s="1" t="inlineStr">
         <is>
           <t>May 1994</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="LY1" s="1" t="inlineStr">
         <is>
           <t>Apr 1994</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="LZ1" s="1" t="inlineStr">
         <is>
           <t>Mar 1994</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="MA1" s="1" t="inlineStr">
         <is>
           <t>Feb 1994</t>
         </is>
       </c>
-      <c r="MA1" s="1" t="inlineStr">
+      <c r="MB1" s="1" t="inlineStr">
         <is>
           <t>Jan 1994</t>
         </is>
       </c>
-      <c r="MB1" s="1" t="inlineStr">
+      <c r="MC1" s="1" t="inlineStr">
         <is>
           <t>Dec 1993</t>
         </is>
       </c>
-      <c r="MC1" s="1" t="inlineStr">
+      <c r="MD1" s="1" t="inlineStr">
         <is>
           <t>Nov 1993</t>
         </is>
       </c>
-      <c r="MD1" s="1" t="inlineStr">
+      <c r="ME1" s="1" t="inlineStr">
         <is>
           <t>Oct 1993</t>
         </is>
       </c>
-      <c r="ME1" s="1" t="inlineStr">
+      <c r="MF1" s="1" t="inlineStr">
         <is>
           <t>Sep 1993</t>
         </is>
       </c>
-      <c r="MF1" s="1" t="inlineStr">
+      <c r="MG1" s="1" t="inlineStr">
         <is>
           <t>Aug 1993</t>
         </is>
       </c>
-      <c r="MG1" s="1" t="inlineStr">
+      <c r="MH1" s="1" t="inlineStr">
         <is>
           <t>Jul 1993</t>
         </is>
       </c>
-      <c r="MH1" s="1" t="inlineStr">
+      <c r="MI1" s="1" t="inlineStr">
         <is>
           <t>Jun 1993</t>
         </is>
       </c>
-      <c r="MI1" s="1" t="inlineStr">
+      <c r="MJ1" s="1" t="inlineStr">
         <is>
           <t>May 1993</t>
         </is>
       </c>
-      <c r="MJ1" s="1" t="inlineStr">
+      <c r="MK1" s="1" t="inlineStr">
         <is>
           <t>Apr 1993</t>
         </is>
       </c>
-      <c r="MK1" s="1" t="inlineStr">
+      <c r="ML1" s="1" t="inlineStr">
         <is>
           <t>Mar 1993</t>
         </is>
       </c>
-      <c r="ML1" s="1" t="inlineStr">
+      <c r="MM1" s="1" t="inlineStr">
         <is>
           <t>Feb 1993</t>
         </is>
       </c>
-      <c r="MM1" s="1" t="inlineStr">
+      <c r="MN1" s="1" t="inlineStr">
         <is>
           <t>Jan 1993</t>
         </is>
       </c>
-      <c r="MN1" s="1" t="inlineStr">
+      <c r="MO1" s="1" t="inlineStr">
         <is>
           <t>Dec 1992</t>
         </is>
       </c>
-      <c r="MO1" s="1" t="inlineStr">
+      <c r="MP1" s="1" t="inlineStr">
         <is>
           <t>Nov 1992</t>
         </is>
       </c>
-      <c r="MP1" s="1" t="inlineStr">
+      <c r="MQ1" s="1" t="inlineStr">
         <is>
           <t>Oct 1992</t>
         </is>
       </c>
-      <c r="MQ1" s="1" t="inlineStr">
+      <c r="MR1" s="1" t="inlineStr">
         <is>
           <t>Sep 1992</t>
         </is>
       </c>
-      <c r="MR1" s="1" t="inlineStr">
+      <c r="MS1" s="1" t="inlineStr">
         <is>
           <t>Aug 1992</t>
         </is>
       </c>
-      <c r="MS1" s="1" t="inlineStr">
+      <c r="MT1" s="1" t="inlineStr">
         <is>
           <t>Jul 1992</t>
         </is>
       </c>
-      <c r="MT1" s="1" t="inlineStr">
+      <c r="MU1" s="1" t="inlineStr">
         <is>
           <t>Jun 1992</t>
         </is>
       </c>
-      <c r="MU1" s="1" t="inlineStr">
+      <c r="MV1" s="1" t="inlineStr">
         <is>
           <t>May 1992</t>
         </is>
       </c>
-      <c r="MV1" s="1" t="inlineStr">
+      <c r="MW1" s="1" t="inlineStr">
         <is>
           <t>Apr 1992</t>
         </is>
       </c>
-      <c r="MW1" s="1" t="inlineStr">
+      <c r="MX1" s="1" t="inlineStr">
         <is>
           <t>Mar 1992</t>
         </is>
       </c>
-      <c r="MX1" s="1" t="inlineStr">
+      <c r="MY1" s="1" t="inlineStr">
         <is>
           <t>Feb 1992</t>
         </is>
       </c>
-      <c r="MY1" s="1" t="inlineStr">
+      <c r="MZ1" s="1" t="inlineStr">
         <is>
           <t>Jan 1992</t>
         </is>
       </c>
-      <c r="MZ1" s="1" t="inlineStr">
+      <c r="NA1" s="1" t="inlineStr">
         <is>
           <t>Dec 1991</t>
         </is>
       </c>
-      <c r="NA1" s="1" t="inlineStr">
+      <c r="NB1" s="1" t="inlineStr">
         <is>
           <t>Nov 1991</t>
         </is>
       </c>
-      <c r="NB1" s="1" t="inlineStr">
+      <c r="NC1" s="1" t="inlineStr">
         <is>
           <t>Oct 1991</t>
         </is>
       </c>
-      <c r="NC1" s="1" t="inlineStr">
+      <c r="ND1" s="1" t="inlineStr">
         <is>
           <t>Sep 1991</t>
         </is>
       </c>
-      <c r="ND1" s="1" t="inlineStr">
+      <c r="NE1" s="1" t="inlineStr">
         <is>
           <t>Aug 1991</t>
         </is>
       </c>
-      <c r="NE1" s="1" t="inlineStr">
+      <c r="NF1" s="1" t="inlineStr">
         <is>
           <t>Jul 1991</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
+      <c r="NG1" s="1" t="inlineStr">
         <is>
           <t>Jun 1991</t>
         </is>
       </c>
-      <c r="NG1" s="1" t="inlineStr">
+      <c r="NH1" s="1" t="inlineStr">
         <is>
           <t>May 1991</t>
         </is>
       </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="NI1" s="1" t="inlineStr">
         <is>
           <t>Apr 1991</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
+      <c r="NJ1" s="1" t="inlineStr">
         <is>
           <t>Mar 1991</t>
         </is>
       </c>
-      <c r="NJ1" s="1" t="inlineStr">
+      <c r="NK1" s="1" t="inlineStr">
         <is>
           <t>Feb 1991</t>
         </is>
       </c>
-      <c r="NK1" s="1" t="inlineStr">
+      <c r="NL1" s="1" t="inlineStr">
         <is>
           <t>Jan 1991</t>
         </is>
       </c>
-      <c r="NL1" s="1" t="inlineStr">
+      <c r="NM1" s="1" t="inlineStr">
         <is>
           <t>Dec 1990</t>
         </is>
       </c>
-      <c r="NM1" s="1" t="inlineStr">
+      <c r="NN1" s="1" t="inlineStr">
         <is>
           <t>Nov 1990</t>
         </is>
       </c>
-      <c r="NN1" s="1" t="inlineStr">
+      <c r="NO1" s="1" t="inlineStr">
         <is>
           <t>Oct 1990</t>
         </is>
       </c>
-      <c r="NO1" s="1" t="inlineStr">
+      <c r="NP1" s="1" t="inlineStr">
         <is>
           <t>Sep 1990</t>
         </is>
       </c>
-      <c r="NP1" s="1" t="inlineStr">
+      <c r="NQ1" s="1" t="inlineStr">
         <is>
           <t>Aug 1990</t>
         </is>
       </c>
-      <c r="NQ1" s="1" t="inlineStr">
+      <c r="NR1" s="1" t="inlineStr">
         <is>
           <t>Jul 1990</t>
         </is>
       </c>
-      <c r="NR1" s="1" t="inlineStr">
+      <c r="NS1" s="1" t="inlineStr">
         <is>
           <t>Jun 1990</t>
         </is>
       </c>
-      <c r="NS1" s="1" t="inlineStr">
+      <c r="NT1" s="1" t="inlineStr">
         <is>
           <t>May 1990</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
+      <c r="NU1" s="1" t="inlineStr">
         <is>
           <t>Apr 1990</t>
         </is>
       </c>
-      <c r="NU1" s="1" t="inlineStr">
+      <c r="NV1" s="1" t="inlineStr">
         <is>
           <t>Mar 1990</t>
         </is>
       </c>
-      <c r="NV1" s="1" t="inlineStr">
+      <c r="NW1" s="1" t="inlineStr">
         <is>
           <t>Feb 1990</t>
         </is>
       </c>
-      <c r="NW1" s="1" t="inlineStr">
+      <c r="NX1" s="1" t="inlineStr">
         <is>
           <t>Jan 1990</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
+      <c r="NY1" s="1" t="inlineStr">
         <is>
           <t>Dec 1989</t>
         </is>
       </c>
-      <c r="NY1" s="1" t="inlineStr">
+      <c r="NZ1" s="1" t="inlineStr">
         <is>
           <t>Nov 1989</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
+      <c r="OA1" s="1" t="inlineStr">
         <is>
           <t>Oct 1989</t>
         </is>
       </c>
-      <c r="OA1" s="1" t="inlineStr">
+      <c r="OB1" s="1" t="inlineStr">
         <is>
           <t>Sep 1989</t>
         </is>
       </c>
-      <c r="OB1" s="1" t="inlineStr">
+      <c r="OC1" s="1" t="inlineStr">
         <is>
           <t>Aug 1989</t>
         </is>
       </c>
-      <c r="OC1" s="1" t="inlineStr">
+      <c r="OD1" s="1" t="inlineStr">
         <is>
           <t>Jul 1989</t>
         </is>
       </c>
-      <c r="OD1" s="1" t="inlineStr">
+      <c r="OE1" s="1" t="inlineStr">
         <is>
           <t>Jun 1989</t>
         </is>
       </c>
-      <c r="OE1" s="1" t="inlineStr">
+      <c r="OF1" s="1" t="inlineStr">
         <is>
           <t>May 1989</t>
         </is>
       </c>
-      <c r="OF1" s="1" t="inlineStr">
+      <c r="OG1" s="1" t="inlineStr">
         <is>
           <t>Apr 1989</t>
         </is>
       </c>
-      <c r="OG1" s="1" t="inlineStr">
+      <c r="OH1" s="1" t="inlineStr">
         <is>
           <t>Mar 1989</t>
         </is>
       </c>
-      <c r="OH1" s="1" t="inlineStr">
+      <c r="OI1" s="1" t="inlineStr">
         <is>
           <t>Feb 1989</t>
         </is>
       </c>
-      <c r="OI1" s="1" t="inlineStr">
+      <c r="OJ1" s="1" t="inlineStr">
         <is>
           <t>Jan 1989</t>
         </is>
       </c>
-      <c r="OJ1" s="1" t="inlineStr">
+      <c r="OK1" s="1" t="inlineStr">
         <is>
           <t>Dec 1988</t>
         </is>
       </c>
-      <c r="OK1" s="1" t="inlineStr">
+      <c r="OL1" s="1" t="inlineStr">
         <is>
           <t>Nov 1988</t>
         </is>
       </c>
-      <c r="OL1" s="1" t="inlineStr">
+      <c r="OM1" s="1" t="inlineStr">
         <is>
           <t>Oct 1988</t>
         </is>
       </c>
-      <c r="OM1" s="1" t="inlineStr">
+      <c r="ON1" s="1" t="inlineStr">
         <is>
           <t>Sep 1988</t>
         </is>
       </c>
-      <c r="ON1" s="1" t="inlineStr">
+      <c r="OO1" s="1" t="inlineStr">
         <is>
           <t>Aug 1988</t>
         </is>
       </c>
-      <c r="OO1" s="1" t="inlineStr">
+      <c r="OP1" s="1" t="inlineStr">
         <is>
           <t>Jul 1988</t>
         </is>
       </c>
-      <c r="OP1" s="1" t="inlineStr">
+      <c r="OQ1" s="1" t="inlineStr">
         <is>
           <t>Jun 1988</t>
         </is>
       </c>
-      <c r="OQ1" s="1" t="inlineStr">
+      <c r="OR1" s="1" t="inlineStr">
         <is>
           <t>May 1988</t>
         </is>
       </c>
-      <c r="OR1" s="1" t="inlineStr">
+      <c r="OS1" s="1" t="inlineStr">
         <is>
           <t>Apr 1988</t>
         </is>
       </c>
-      <c r="OS1" s="1" t="inlineStr">
+      <c r="OT1" s="1" t="inlineStr">
         <is>
           <t>Mar 1988</t>
         </is>
       </c>
-      <c r="OT1" s="1" t="inlineStr">
+      <c r="OU1" s="1" t="inlineStr">
         <is>
           <t>Feb 1988</t>
         </is>
       </c>
-      <c r="OU1" s="1" t="inlineStr">
+      <c r="OV1" s="1" t="inlineStr">
         <is>
           <t>Jan 1988</t>
         </is>
       </c>
-      <c r="OV1" s="1" t="inlineStr">
+      <c r="OW1" s="1" t="inlineStr">
         <is>
           <t>Dec 1987</t>
         </is>
       </c>
-      <c r="OW1" s="1" t="inlineStr">
+      <c r="OX1" s="1" t="inlineStr">
         <is>
           <t>Nov 1987</t>
         </is>
       </c>
-      <c r="OX1" s="1" t="inlineStr">
+      <c r="OY1" s="1" t="inlineStr">
         <is>
           <t>Oct 1987</t>
         </is>
       </c>
-      <c r="OY1" s="1" t="inlineStr">
+      <c r="OZ1" s="1" t="inlineStr">
         <is>
           <t>Sep 1987</t>
         </is>
       </c>
-      <c r="OZ1" s="1" t="inlineStr">
+      <c r="PA1" s="1" t="inlineStr">
         <is>
           <t>Aug 1987</t>
         </is>
       </c>
-      <c r="PA1" s="1" t="inlineStr">
+      <c r="PB1" s="1" t="inlineStr">
         <is>
           <t>Jul 1987</t>
         </is>
       </c>
-      <c r="PB1" s="1" t="inlineStr">
+      <c r="PC1" s="1" t="inlineStr">
         <is>
           <t>Jun 1987</t>
         </is>
       </c>
-      <c r="PC1" s="1" t="inlineStr">
+      <c r="PD1" s="1" t="inlineStr">
         <is>
           <t>May 1987</t>
         </is>
       </c>
-      <c r="PD1" s="1" t="inlineStr">
+      <c r="PE1" s="1" t="inlineStr">
         <is>
           <t>Apr 1987</t>
         </is>
       </c>
-      <c r="PE1" s="1" t="inlineStr">
+      <c r="PF1" s="1" t="inlineStr">
         <is>
           <t>Mar 1987</t>
         </is>
       </c>
-      <c r="PF1" s="1" t="inlineStr">
+      <c r="PG1" s="1" t="inlineStr">
         <is>
           <t>Feb 1987</t>
         </is>
       </c>
-      <c r="PG1" s="1" t="inlineStr">
+      <c r="PH1" s="1" t="inlineStr">
         <is>
           <t>Jan 1987</t>
         </is>
       </c>
-      <c r="PH1" s="1" t="inlineStr">
+      <c r="PI1" s="1" t="inlineStr">
         <is>
           <t>Dec 1986</t>
         </is>
       </c>
-      <c r="PI1" s="1" t="inlineStr">
+      <c r="PJ1" s="1" t="inlineStr">
         <is>
           <t>Nov 1986</t>
         </is>
       </c>
-      <c r="PJ1" s="1" t="inlineStr">
+      <c r="PK1" s="1" t="inlineStr">
         <is>
           <t>Oct 1986</t>
         </is>
       </c>
-      <c r="PK1" s="1" t="inlineStr">
+      <c r="PL1" s="1" t="inlineStr">
         <is>
           <t>Sep 1986</t>
         </is>
       </c>
-      <c r="PL1" s="1" t="inlineStr">
+      <c r="PM1" s="1" t="inlineStr">
         <is>
           <t>Aug 1986</t>
         </is>
       </c>
-      <c r="PM1" s="1" t="inlineStr">
+      <c r="PN1" s="1" t="inlineStr">
         <is>
           <t>Jul 1986</t>
         </is>
       </c>
-      <c r="PN1" s="1" t="inlineStr">
+      <c r="PO1" s="1" t="inlineStr">
         <is>
           <t>Jun 1986</t>
         </is>
       </c>
-      <c r="PO1" s="1" t="inlineStr">
+      <c r="PP1" s="1" t="inlineStr">
         <is>
           <t>May 1986</t>
         </is>
       </c>
-      <c r="PP1" s="1" t="inlineStr">
+      <c r="PQ1" s="1" t="inlineStr">
         <is>
           <t>Apr 1986</t>
         </is>
       </c>
-      <c r="PQ1" s="1" t="inlineStr">
+      <c r="PR1" s="1" t="inlineStr">
         <is>
           <t>Mar 1986</t>
         </is>
       </c>
-      <c r="PR1" s="1" t="inlineStr">
+      <c r="PS1" s="1" t="inlineStr">
         <is>
           <t>Feb 1986</t>
         </is>
       </c>
-      <c r="PS1" s="1" t="inlineStr">
+      <c r="PT1" s="1" t="inlineStr">
         <is>
           <t>Jan 1986</t>
         </is>
       </c>
-      <c r="PT1" s="1" t="inlineStr">
+      <c r="PU1" s="1" t="inlineStr">
         <is>
           <t>Dec 1985</t>
         </is>
       </c>
-      <c r="PU1" s="1" t="inlineStr">
+      <c r="PV1" s="1" t="inlineStr">
         <is>
           <t>Nov 1985</t>
         </is>
       </c>
-      <c r="PV1" s="1" t="inlineStr">
+      <c r="PW1" s="1" t="inlineStr">
         <is>
           <t>Oct 1985</t>
         </is>
       </c>
-      <c r="PW1" s="1" t="inlineStr">
+      <c r="PX1" s="1" t="inlineStr">
         <is>
           <t>Sep 1985</t>
         </is>
       </c>
-      <c r="PX1" s="1" t="inlineStr">
+      <c r="PY1" s="1" t="inlineStr">
         <is>
           <t>Aug 1985</t>
         </is>
       </c>
-      <c r="PY1" s="1" t="inlineStr">
+      <c r="PZ1" s="1" t="inlineStr">
         <is>
           <t>Jul 1985</t>
         </is>
       </c>
-      <c r="PZ1" s="1" t="inlineStr">
+      <c r="QA1" s="1" t="inlineStr">
         <is>
           <t>Jun 1985</t>
         </is>
       </c>
-      <c r="QA1" s="1" t="inlineStr">
+      <c r="QB1" s="1" t="inlineStr">
         <is>
           <t>May 1985</t>
         </is>
       </c>
-      <c r="QB1" s="1" t="inlineStr">
+      <c r="QC1" s="1" t="inlineStr">
         <is>
           <t>Apr 1985</t>
         </is>
       </c>
-      <c r="QC1" s="1" t="inlineStr">
+      <c r="QD1" s="1" t="inlineStr">
         <is>
           <t>Mar 1985</t>
         </is>
       </c>
-      <c r="QD1" s="1" t="inlineStr">
+      <c r="QE1" s="1" t="inlineStr">
         <is>
           <t>Feb 1985</t>
         </is>
       </c>
-      <c r="QE1" s="1" t="inlineStr">
+      <c r="QF1" s="1" t="inlineStr">
         <is>
           <t>Jan 1985</t>
         </is>
       </c>
-      <c r="QF1" s="1" t="inlineStr">
+      <c r="QG1" s="1" t="inlineStr">
         <is>
           <t>Dec 1984</t>
         </is>
       </c>
-      <c r="QG1" s="1" t="inlineStr">
+      <c r="QH1" s="1" t="inlineStr">
         <is>
           <t>Nov 1984</t>
         </is>
       </c>
-      <c r="QH1" s="1" t="inlineStr">
+      <c r="QI1" s="1" t="inlineStr">
         <is>
           <t>Oct 1984</t>
         </is>
       </c>
-      <c r="QI1" s="1" t="inlineStr">
+      <c r="QJ1" s="1" t="inlineStr">
         <is>
           <t>Sep 1984</t>
         </is>
       </c>
-      <c r="QJ1" s="1" t="inlineStr">
+      <c r="QK1" s="1" t="inlineStr">
         <is>
           <t>Aug 1984</t>
         </is>
       </c>
-      <c r="QK1" s="1" t="inlineStr">
+      <c r="QL1" s="1" t="inlineStr">
         <is>
           <t>Jul 1984</t>
         </is>
       </c>
-      <c r="QL1" s="1" t="inlineStr">
+      <c r="QM1" s="1" t="inlineStr">
         <is>
           <t>Jun 1984</t>
         </is>
       </c>
-      <c r="QM1" s="1" t="inlineStr">
+      <c r="QN1" s="1" t="inlineStr">
         <is>
           <t>May 1984</t>
         </is>
       </c>
-      <c r="QN1" s="1" t="inlineStr">
+      <c r="QO1" s="1" t="inlineStr">
         <is>
           <t>Apr 1984</t>
         </is>
       </c>
-      <c r="QO1" s="1" t="inlineStr">
+      <c r="QP1" s="1" t="inlineStr">
         <is>
           <t>Mar 1984</t>
         </is>
       </c>
-      <c r="QP1" s="1" t="inlineStr">
+      <c r="QQ1" s="1" t="inlineStr">
         <is>
           <t>Feb 1984</t>
         </is>
       </c>
-      <c r="QQ1" s="1" t="inlineStr">
+      <c r="QR1" s="1" t="inlineStr">
         <is>
           <t>Jan 1984</t>
         </is>
       </c>
-      <c r="QR1" s="1" t="inlineStr">
+      <c r="QS1" s="1" t="inlineStr">
         <is>
           <t>Dec 1983</t>
         </is>
       </c>
-      <c r="QS1" s="1" t="inlineStr">
+      <c r="QT1" s="1" t="inlineStr">
         <is>
           <t>Nov 1983</t>
         </is>
       </c>
-      <c r="QT1" s="1" t="inlineStr">
+      <c r="QU1" s="1" t="inlineStr">
         <is>
           <t>Oct 1983</t>
         </is>
       </c>
-      <c r="QU1" s="1" t="inlineStr">
+      <c r="QV1" s="1" t="inlineStr">
         <is>
           <t>Sep 1983</t>
         </is>
       </c>
-      <c r="QV1" s="1" t="inlineStr">
+      <c r="QW1" s="1" t="inlineStr">
         <is>
           <t>Aug 1983</t>
         </is>
       </c>
-      <c r="QW1" s="1" t="inlineStr">
+      <c r="QX1" s="1" t="inlineStr">
         <is>
           <t>Jul 1983</t>
         </is>
       </c>
-      <c r="QX1" s="1" t="inlineStr">
+      <c r="QY1" s="1" t="inlineStr">
         <is>
           <t>Jun 1983</t>
         </is>
       </c>
-      <c r="QY1" s="1" t="inlineStr">
+      <c r="QZ1" s="1" t="inlineStr">
         <is>
           <t>May 1983</t>
         </is>
       </c>
-      <c r="QZ1" s="1" t="inlineStr">
+      <c r="RA1" s="1" t="inlineStr">
         <is>
           <t>Apr 1983</t>
         </is>
       </c>
-      <c r="RA1" s="1" t="inlineStr">
+      <c r="RB1" s="1" t="inlineStr">
         <is>
           <t>Mar 1983</t>
         </is>
       </c>
-      <c r="RB1" s="1" t="inlineStr">
+      <c r="RC1" s="1" t="inlineStr">
         <is>
           <t>Feb 1983</t>
         </is>
       </c>
-      <c r="RC1" s="1" t="inlineStr">
+      <c r="RD1" s="1" t="inlineStr">
         <is>
           <t>Jan 1983</t>
         </is>
@@ -2731,1335 +2736,1335 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
         <v>41268.9</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>41043.2</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>40453.9</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>36833</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>34394.9</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>34925.1</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>37585.8</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>35945.1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>33152.6</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>35484.1</v>
       </c>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
         <v>40566</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>39514.2</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>38576.5</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>35294.7</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>33570.6</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>32202.5</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>33525.9</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>31972.8</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>28177.8</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>26449.9</v>
       </c>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="n">
         <v>38776.7</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>38093.8</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>38104.3</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>34494.9</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>33896.3</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>33073.3</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>33878.1</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>32955.7</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>30586.1</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>31725.7</v>
       </c>
-      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="n">
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>35893.5</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>35259.7</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>35534.4</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>32005.4</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>31542.3</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>30733.7</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>30841.6</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>30359.1</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AW2" t="n">
         <v>28541.9</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AX2" t="n">
         <v>29193.6</v>
       </c>
-      <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="n">
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="n">
         <v>34734.1</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
         <v>34108.2</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC2" t="n">
         <v>34240.9</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>30870.3</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BE2" t="n">
         <v>30329.7</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BF2" t="n">
         <v>29609.8</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BG2" t="n">
         <v>29807.6</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BH2" t="n">
         <v>29459.2</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BI2" t="n">
         <v>27278.5</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BJ2" t="n">
         <v>27863.7</v>
       </c>
-      <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="n">
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="n">
         <v>31757</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BN2" t="n">
         <v>30958.5</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BO2" t="n">
         <v>31119.2</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BP2" t="n">
         <v>27976.4</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BQ2" t="n">
         <v>27539.6</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BR2" t="n">
         <v>26827.4</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BS2" t="n">
         <v>26857.4</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BT2" t="n">
         <v>26610.7</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BU2" t="n">
         <v>24645.8</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BV2" t="n">
         <v>25114.1</v>
       </c>
-      <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr"/>
-      <c r="BX2" t="n">
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="n">
         <v>28634.6</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BZ2" t="n">
         <v>27937.3</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CA2" t="n">
         <v>28278.9</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CB2" t="n">
         <v>25270.6</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CC2" t="n">
         <v>24893.4</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CD2" t="n">
         <v>24338.8</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CE2" t="n">
         <v>24280.3</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CF2" t="n">
         <v>24194.8</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CG2" t="n">
         <v>22386.7</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CH2" t="n">
         <v>22722.8</v>
       </c>
-      <c r="CH2" t="inlineStr"/>
       <c r="CI2" t="inlineStr"/>
-      <c r="CJ2" t="n">
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="n">
         <v>25801.3</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CL2" t="n">
         <v>23474.7</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CM2" t="n">
         <v>23967.2</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CN2" t="n">
         <v>23042.4</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CO2" t="n">
         <v>21133.9</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CP2" t="n">
         <v>20775.8</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CQ2" t="n">
         <v>21166.4</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CR2" t="n">
         <v>21249.8</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CS2" t="n">
         <v>19701.2</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CT2" t="n">
         <v>19800.6</v>
       </c>
-      <c r="CT2" t="inlineStr"/>
       <c r="CU2" t="inlineStr"/>
-      <c r="CV2" t="n">
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="n">
         <v>23059.7</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="CX2" t="n">
         <v>21011.9</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="CY2" t="n">
         <v>21491.3</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="CZ2" t="n">
         <v>20653.3</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DA2" t="n">
         <v>18886.2</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DB2" t="n">
         <v>18513.2</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DC2" t="n">
         <v>18826.7</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DD2" t="n">
         <v>18886.3</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DE2" t="n">
         <v>17600.3</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DF2" t="n">
         <v>17641.2</v>
       </c>
-      <c r="DF2" t="inlineStr"/>
       <c r="DG2" t="inlineStr"/>
-      <c r="DH2" t="n">
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="n">
         <v>20334.2</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DJ2" t="n">
         <v>18476.7</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DK2" t="n">
         <v>18933.8</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DL2" t="n">
         <v>18226.6</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DM2" t="n">
         <v>16658.9</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DN2" t="n">
         <v>16314.9</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DO2" t="n">
         <v>16584.9</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DP2" t="n">
         <v>16714.8</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DQ2" t="n">
         <v>15603.1</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DR2" t="n">
         <v>15650.2</v>
       </c>
-      <c r="DR2" t="inlineStr"/>
       <c r="DS2" t="inlineStr"/>
-      <c r="DT2" t="n">
+      <c r="DT2" t="inlineStr"/>
+      <c r="DU2" t="n">
         <v>17739.7</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DV2" t="n">
         <v>16128.9</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>16546.4</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>15865.1</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>14705</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>14408</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>14565.1</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>14696.8</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>13649</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>13588</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>13769.1</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>15249</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>15329.5</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>13910.9</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>14284.8</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>13536.5</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>12569.8</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>12252.8</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>12329.9</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>12455.1</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>11510.4</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>11321.7</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>12334.2</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>12718.1</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ES2" t="n">
         <v>12610</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ET2" t="n">
         <v>11339</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EU2" t="n">
         <v>11717.6</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>10912.8</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EW2" t="n">
         <v>10115.6</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EX2" t="n">
         <v>9936.5</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EY2" t="n">
         <v>9941.6</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="EZ2" t="n">
         <v>10028.4</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="FA2" t="n">
         <v>9343.200000000001</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="FB2" t="n">
         <v>9317.6</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="FC2" t="n">
         <v>9323.799999999999</v>
       </c>
-      <c r="FC2" t="n">
+      <c r="FD2" t="n">
         <v>10756.6</v>
       </c>
-      <c r="FD2" t="n">
+      <c r="FE2" t="n">
         <v>10728.5</v>
       </c>
-      <c r="FE2" t="n">
+      <c r="FF2" t="n">
         <v>9790.799999999999</v>
       </c>
-      <c r="FF2" t="n">
+      <c r="FG2" t="n">
         <v>10082.7</v>
       </c>
-      <c r="FG2" t="n">
+      <c r="FH2" t="n">
         <v>9446.5</v>
       </c>
-      <c r="FH2" t="n">
+      <c r="FI2" t="n">
         <v>8767.700000000001</v>
       </c>
-      <c r="FI2" t="n">
+      <c r="FJ2" t="n">
         <v>8628.799999999999</v>
       </c>
-      <c r="FJ2" t="n">
+      <c r="FK2" t="n">
         <v>8642</v>
       </c>
-      <c r="FK2" t="n">
+      <c r="FL2" t="n">
         <v>8703.5</v>
       </c>
-      <c r="FL2" t="n">
+      <c r="FM2" t="n">
         <v>8142</v>
       </c>
-      <c r="FM2" t="n">
+      <c r="FN2" t="n">
         <v>8123.2</v>
       </c>
-      <c r="FN2" t="n">
+      <c r="FO2" t="n">
         <v>8354.700000000001</v>
       </c>
-      <c r="FO2" t="n">
+      <c r="FP2" t="n">
         <v>9077.299999999999</v>
       </c>
-      <c r="FP2" t="n">
+      <c r="FQ2" t="n">
         <v>9015.299999999999</v>
       </c>
-      <c r="FQ2" t="n">
+      <c r="FR2" t="n">
         <v>8104.7</v>
       </c>
-      <c r="FR2" t="n">
+      <c r="FS2" t="n">
         <v>8263</v>
       </c>
-      <c r="FS2" t="n">
+      <c r="FT2" t="n">
         <v>7668.4</v>
       </c>
-      <c r="FT2" t="n">
+      <c r="FU2" t="n">
         <v>7116.6</v>
       </c>
-      <c r="FU2" t="n">
+      <c r="FV2" t="n">
         <v>6998.2</v>
       </c>
-      <c r="FV2" t="n">
+      <c r="FW2" t="n">
         <v>7026</v>
       </c>
-      <c r="FW2" t="n">
+      <c r="FX2" t="n">
         <v>7157.5</v>
       </c>
-      <c r="FX2" t="n">
+      <c r="FY2" t="n">
         <v>6672.5</v>
       </c>
-      <c r="FY2" t="n">
+      <c r="FZ2" t="n">
         <v>6685.8</v>
       </c>
-      <c r="FZ2" t="n">
+      <c r="GA2" t="n">
         <v>7013.7</v>
       </c>
-      <c r="GA2" t="n">
+      <c r="GB2" t="n">
         <v>7488.3</v>
       </c>
-      <c r="GB2" t="n">
+      <c r="GC2" t="n">
         <v>7499.2</v>
       </c>
-      <c r="GC2" t="n">
+      <c r="GD2" t="n">
         <v>6821.7</v>
       </c>
-      <c r="GD2" t="n">
+      <c r="GE2" t="n">
         <v>6997.7</v>
       </c>
-      <c r="GE2" t="n">
+      <c r="GF2" t="n">
         <v>6553.6</v>
       </c>
-      <c r="GF2" t="n">
+      <c r="GG2" t="n">
         <v>6077.4</v>
       </c>
-      <c r="GG2" t="n">
+      <c r="GH2" t="n">
         <v>6012.2</v>
       </c>
-      <c r="GH2" t="n">
+      <c r="GI2" t="n">
         <v>6057.8</v>
       </c>
-      <c r="GI2" t="n">
+      <c r="GJ2" t="n">
         <v>6175.6</v>
       </c>
-      <c r="GJ2" t="n">
+      <c r="GK2" t="n">
         <v>5774.6</v>
       </c>
-      <c r="GK2" t="n">
+      <c r="GL2" t="n">
         <v>5796.7</v>
       </c>
-      <c r="GL2" t="n">
+      <c r="GM2" t="n">
         <v>6001.9</v>
       </c>
-      <c r="GM2" t="n">
+      <c r="GN2" t="n">
         <v>6641.6</v>
       </c>
-      <c r="GN2" t="n">
+      <c r="GO2" t="n">
         <v>6850.4</v>
       </c>
-      <c r="GO2" t="n">
+      <c r="GP2" t="n">
         <v>5909</v>
       </c>
-      <c r="GP2" t="n">
+      <c r="GQ2" t="n">
         <v>5846.6</v>
       </c>
-      <c r="GQ2" t="n">
+      <c r="GR2" t="n">
         <v>5495.2</v>
       </c>
-      <c r="GR2" t="n">
+      <c r="GS2" t="n">
         <v>5040.8</v>
       </c>
-      <c r="GS2" t="n">
+      <c r="GT2" t="n">
         <v>4934.9</v>
       </c>
-      <c r="GT2" t="n">
+      <c r="GU2" t="n">
         <v>4935</v>
       </c>
-      <c r="GU2" t="n">
+      <c r="GV2" t="n">
         <v>4899.2</v>
       </c>
-      <c r="GV2" t="n">
+      <c r="GW2" t="n">
         <v>4663.3</v>
       </c>
-      <c r="GW2" t="n">
+      <c r="GX2" t="n">
         <v>4799.1</v>
       </c>
-      <c r="GX2" t="n">
+      <c r="GY2" t="n">
         <v>5012.2</v>
       </c>
-      <c r="GY2" t="n">
+      <c r="GZ2" t="n">
         <v>5300.9</v>
       </c>
-      <c r="GZ2" t="n">
+      <c r="HA2" t="n">
         <v>5562.5</v>
       </c>
-      <c r="HA2" t="n">
+      <c r="HB2" t="n">
         <v>4965.6</v>
       </c>
-      <c r="HB2" t="n">
+      <c r="HC2" t="n">
         <v>4983.2</v>
       </c>
-      <c r="HC2" t="n">
+      <c r="HD2" t="n">
         <v>4717.7</v>
       </c>
-      <c r="HD2" t="n">
+      <c r="HE2" t="n">
         <v>4262.7</v>
       </c>
-      <c r="HE2" t="n">
+      <c r="HF2" t="n">
         <v>4209.2</v>
       </c>
-      <c r="HF2" t="n">
+      <c r="HG2" t="n">
         <v>4250.7</v>
       </c>
-      <c r="HG2" t="n">
+      <c r="HH2" t="n">
         <v>4166.1</v>
       </c>
-      <c r="HH2" t="n">
+      <c r="HI2" t="n">
         <v>4001.8</v>
       </c>
-      <c r="HI2" t="n">
+      <c r="HJ2" t="n">
         <v>4049.8</v>
       </c>
-      <c r="HJ2" t="n">
+      <c r="HK2" t="n">
         <v>4211.4</v>
       </c>
-      <c r="HK2" t="n">
+      <c r="HL2" t="n">
         <v>4569.4</v>
       </c>
-      <c r="HL2" t="n">
+      <c r="HM2" t="n">
         <v>4735.7</v>
       </c>
-      <c r="HM2" t="n">
+      <c r="HN2" t="n">
         <v>4202.7</v>
       </c>
-      <c r="HN2" t="n">
+      <c r="HO2" t="n">
         <v>4204.4</v>
       </c>
-      <c r="HO2" t="n">
+      <c r="HP2" t="n">
         <v>3971.8</v>
       </c>
-      <c r="HP2" t="n">
+      <c r="HQ2" t="n">
         <v>3609.6</v>
       </c>
-      <c r="HQ2" t="n">
+      <c r="HR2" t="n">
         <v>3562.1</v>
       </c>
-      <c r="HR2" t="n">
+      <c r="HS2" t="n">
         <v>3576.9</v>
       </c>
-      <c r="HS2" t="n">
+      <c r="HT2" t="n">
         <v>3463.3</v>
       </c>
-      <c r="HT2" t="n">
+      <c r="HU2" t="n">
         <v>3406.9</v>
       </c>
-      <c r="HU2" t="n">
+      <c r="HV2" t="n">
         <v>3494.8</v>
       </c>
-      <c r="HV2" t="n">
+      <c r="HW2" t="n">
         <v>3706.4</v>
       </c>
-      <c r="HW2" t="n">
+      <c r="HX2" t="n">
         <v>3907.4</v>
       </c>
-      <c r="HX2" t="n">
+      <c r="HY2" t="n">
         <v>4404.4</v>
       </c>
-      <c r="HY2" t="n">
+      <c r="HZ2" t="n">
         <v>3733.1</v>
       </c>
-      <c r="HZ2" t="n">
+      <c r="IA2" t="n">
         <v>3661.9</v>
       </c>
-      <c r="IA2" t="n">
+      <c r="IB2" t="n">
         <v>3422.4</v>
       </c>
-      <c r="IB2" t="n">
+      <c r="IC2" t="n">
         <v>3143.7</v>
       </c>
-      <c r="IC2" t="n">
+      <c r="ID2" t="n">
         <v>3096.6</v>
       </c>
-      <c r="ID2" t="n">
+      <c r="IE2" t="n">
         <v>3158.8</v>
       </c>
-      <c r="IE2" t="n">
+      <c r="IF2" t="n">
         <v>3202.1</v>
       </c>
-      <c r="IF2" t="n">
+      <c r="IG2" t="n">
         <v>3052.2</v>
       </c>
-      <c r="IG2" t="n">
+      <c r="IH2" t="n">
         <v>3114.8</v>
       </c>
-      <c r="IH2" t="n">
+      <c r="II2" t="n">
         <v>3324.4</v>
       </c>
-      <c r="II2" t="n">
+      <c r="IJ2" t="n">
         <v>3596.1</v>
       </c>
-      <c r="IJ2" t="n">
+      <c r="IK2" t="n">
         <v>4033.3</v>
       </c>
-      <c r="IK2" t="n">
+      <c r="IL2" t="n">
         <v>3421.7</v>
       </c>
-      <c r="IL2" t="n">
+      <c r="IM2" t="n">
         <v>3347.3</v>
       </c>
-      <c r="IM2" t="n">
+      <c r="IN2" t="n">
         <v>3136.9</v>
       </c>
-      <c r="IN2" t="n">
+      <c r="IO2" t="n">
         <v>2889.4</v>
       </c>
-      <c r="IO2" t="n">
+      <c r="IP2" t="n">
         <v>2851.4</v>
       </c>
-      <c r="IP2" t="n">
+      <c r="IQ2" t="n">
         <v>2908.7</v>
       </c>
-      <c r="IQ2" t="n">
+      <c r="IR2" t="n">
         <v>2929.6</v>
       </c>
-      <c r="IR2" t="n">
+      <c r="IS2" t="n">
         <v>2820.9</v>
       </c>
-      <c r="IS2" t="n">
+      <c r="IT2" t="n">
         <v>2876.1</v>
       </c>
-      <c r="IT2" t="n">
+      <c r="IU2" t="n">
         <v>3047.1</v>
       </c>
-      <c r="IU2" t="n">
+      <c r="IV2" t="n">
         <v>3332.8</v>
       </c>
-      <c r="IV2" t="n">
+      <c r="IW2" t="n">
         <v>3680</v>
       </c>
-      <c r="IW2" t="n">
+      <c r="IX2" t="n">
         <v>3107.8</v>
       </c>
-      <c r="IX2" t="n">
+      <c r="IY2" t="n">
         <v>3029.3</v>
       </c>
-      <c r="IY2" t="n">
+      <c r="IZ2" t="n">
         <v>2854.3</v>
       </c>
-      <c r="IZ2" t="n">
+      <c r="JA2" t="n">
         <v>2636.3</v>
       </c>
-      <c r="JA2" t="n">
+      <c r="JB2" t="n">
         <v>2596.9</v>
       </c>
-      <c r="JB2" t="n">
+      <c r="JC2" t="n">
         <v>2645.2</v>
       </c>
-      <c r="JC2" t="n">
+      <c r="JD2" t="n">
         <v>2636.9</v>
       </c>
-      <c r="JD2" t="n">
+      <c r="JE2" t="n">
         <v>2571.5</v>
       </c>
-      <c r="JE2" t="n">
+      <c r="JF2" t="n">
         <v>2626.6</v>
       </c>
-      <c r="JF2" t="n">
+      <c r="JG2" t="n">
         <v>2804.9</v>
       </c>
-      <c r="JG2" t="n">
+      <c r="JH2" t="n">
         <v>2962.9</v>
       </c>
-      <c r="JH2" t="n">
+      <c r="JI2" t="n">
         <v>3383</v>
       </c>
-      <c r="JI2" t="n">
+      <c r="JJ2" t="n">
         <v>2859.1</v>
       </c>
-      <c r="JJ2" t="n">
+      <c r="JK2" t="n">
         <v>2743.9</v>
       </c>
-      <c r="JK2" t="n">
+      <c r="JL2" t="n">
         <v>2604.3</v>
       </c>
-      <c r="JL2" t="n">
+      <c r="JM2" t="n">
         <v>2410.9</v>
       </c>
-      <c r="JM2" t="n">
+      <c r="JN2" t="n">
         <v>2380.3</v>
       </c>
-      <c r="JN2" t="n">
+      <c r="JO2" t="n">
         <v>2428.8</v>
       </c>
-      <c r="JO2" t="n">
+      <c r="JP2" t="n">
         <v>2364</v>
       </c>
-      <c r="JP2" t="n">
+      <c r="JQ2" t="n">
         <v>2356.8</v>
       </c>
-      <c r="JQ2" t="n">
+      <c r="JR2" t="n">
         <v>2403.1</v>
       </c>
-      <c r="JR2" t="n">
+      <c r="JS2" t="n">
         <v>2538.4</v>
       </c>
-      <c r="JS2" t="n">
+      <c r="JT2" t="n">
         <v>2662.1</v>
       </c>
-      <c r="JT2" t="n">
+      <c r="JU2" t="n">
         <v>3131.4</v>
       </c>
-      <c r="JU2" t="n">
+      <c r="JV2" t="n">
         <v>2652.2</v>
       </c>
-      <c r="JV2" t="n">
+      <c r="JW2" t="n">
         <v>2536</v>
       </c>
-      <c r="JW2" t="n">
+      <c r="JX2" t="n">
         <v>2443.1</v>
       </c>
-      <c r="JX2" t="n">
+      <c r="JY2" t="n">
         <v>2274.4</v>
       </c>
-      <c r="JY2" t="n">
+      <c r="JZ2" t="n">
         <v>2254.1</v>
       </c>
-      <c r="JZ2" t="n">
+      <c r="KA2" t="n">
         <v>2304.4</v>
       </c>
-      <c r="KA2" t="n">
+      <c r="KB2" t="n">
         <v>2245</v>
       </c>
-      <c r="KB2" t="n">
+      <c r="KC2" t="n">
         <v>2229.7</v>
       </c>
-      <c r="KC2" t="n">
+      <c r="KD2" t="n">
         <v>2271.4</v>
       </c>
-      <c r="KD2" t="n">
+      <c r="KE2" t="n">
         <v>2296.1</v>
       </c>
-      <c r="KE2" t="n">
+      <c r="KF2" t="n">
         <v>2514.7</v>
       </c>
-      <c r="KF2" t="n">
+      <c r="KG2" t="n">
         <v>2899</v>
       </c>
-      <c r="KG2" t="n">
+      <c r="KH2" t="n">
         <v>2469.5</v>
       </c>
-      <c r="KH2" t="n">
+      <c r="KI2" t="n">
         <v>2361.9</v>
       </c>
-      <c r="KI2" t="n">
+      <c r="KJ2" t="n">
         <v>2253</v>
       </c>
-      <c r="KJ2" t="n">
+      <c r="KK2" t="n">
         <v>2116.9</v>
       </c>
-      <c r="KK2" t="n">
+      <c r="KL2" t="n">
         <v>2115</v>
       </c>
-      <c r="KL2" t="n">
+      <c r="KM2" t="n">
         <v>2177.6</v>
       </c>
-      <c r="KM2" t="n">
+      <c r="KN2" t="n">
         <v>2120.7</v>
       </c>
-      <c r="KN2" t="n">
+      <c r="KO2" t="n">
         <v>2113</v>
       </c>
-      <c r="KO2" t="n">
+      <c r="KP2" t="n">
         <v>2143.6</v>
       </c>
-      <c r="KP2" t="n">
+      <c r="KQ2" t="n">
         <v>2226.6</v>
       </c>
-      <c r="KQ2" t="n">
+      <c r="KR2" t="n">
         <v>2302.1</v>
       </c>
-      <c r="KR2" t="n">
+      <c r="KS2" t="n">
         <v>2871.7</v>
       </c>
-      <c r="KS2" t="n">
+      <c r="KT2" t="n">
         <v>2308.6</v>
       </c>
-      <c r="KT2" t="n">
+      <c r="KU2" t="n">
         <v>2165.7</v>
       </c>
-      <c r="KU2" t="n">
+      <c r="KV2" t="n">
         <v>2100.4</v>
       </c>
-      <c r="KV2" t="n">
+      <c r="KW2" t="n">
         <v>1931.9</v>
       </c>
-      <c r="KW2" t="n">
+      <c r="KX2" t="n">
         <v>1904</v>
       </c>
-      <c r="KX2" t="n">
+      <c r="KY2" t="n">
         <v>1981.9</v>
       </c>
-      <c r="KY2" t="n">
+      <c r="KZ2" t="n">
         <v>1913.7</v>
       </c>
-      <c r="KZ2" t="n">
+      <c r="LA2" t="n">
         <v>1869.8</v>
       </c>
-      <c r="LA2" t="n">
+      <c r="LB2" t="n">
         <v>1875.2</v>
       </c>
-      <c r="LB2" t="n">
+      <c r="LC2" t="n">
         <v>1926.7</v>
       </c>
-      <c r="LC2" t="n">
+      <c r="LD2" t="n">
         <v>1924.5</v>
       </c>
-      <c r="LD2" t="n">
+      <c r="LE2" t="n">
         <v>2371.3</v>
       </c>
-      <c r="LE2" t="n">
+      <c r="LF2" t="n">
         <v>1938.3</v>
       </c>
-      <c r="LF2" t="n">
+      <c r="LG2" t="n">
         <v>1814.6</v>
       </c>
-      <c r="LG2" t="n">
+      <c r="LH2" t="n">
         <v>1773.3</v>
       </c>
-      <c r="LH2" t="n">
+      <c r="LI2" t="n">
         <v>1649.6</v>
       </c>
-      <c r="LI2" t="n">
+      <c r="LJ2" t="n">
         <v>1629</v>
       </c>
-      <c r="LJ2" t="n">
+      <c r="LK2" t="n">
         <v>1649.6</v>
       </c>
-      <c r="LK2" t="n">
+      <c r="LL2" t="n">
         <v>1587.7</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>1546.5</v>
       </c>
       <c r="LM2" t="n">
         <v>1546.5</v>
       </c>
       <c r="LN2" t="n">
+        <v>1546.5</v>
+      </c>
+      <c r="LO2" t="n">
         <v>1505.3</v>
       </c>
-      <c r="LO2" t="n">
+      <c r="LP2" t="n">
         <v>1608.3</v>
       </c>
-      <c r="LP2" t="n">
+      <c r="LQ2" t="n">
         <v>1957.8</v>
       </c>
-      <c r="LQ2" t="n">
+      <c r="LR2" t="n">
         <v>1574.4</v>
       </c>
-      <c r="LR2" t="n">
+      <c r="LS2" t="n">
         <v>1463.2</v>
       </c>
-      <c r="LS2" t="n">
+      <c r="LT2" t="n">
         <v>1414.7</v>
       </c>
-      <c r="LT2" t="n">
+      <c r="LU2" t="n">
         <v>1303.1</v>
       </c>
-      <c r="LU2" t="n">
+      <c r="LV2" t="n">
         <v>1268.1</v>
       </c>
-      <c r="LV2" t="n">
+      <c r="LW2" t="n">
         <v>1298.1</v>
       </c>
-      <c r="LW2" t="n">
+      <c r="LX2" t="n">
         <v>1229.8</v>
       </c>
-      <c r="LX2" t="n">
+      <c r="LY2" t="n">
         <v>1185.9</v>
       </c>
-      <c r="LY2" t="n">
+      <c r="LZ2" t="n">
         <v>1183</v>
       </c>
-      <c r="LZ2" t="n">
+      <c r="MA2" t="n">
         <v>1178.1</v>
       </c>
-      <c r="MA2" t="n">
+      <c r="MB2" t="n">
         <v>1208.5</v>
       </c>
-      <c r="MB2" t="n">
+      <c r="MC2" t="n">
         <v>1437.8</v>
       </c>
-      <c r="MC2" t="n">
+      <c r="MD2" t="n">
         <v>1119.1</v>
       </c>
-      <c r="MD2" t="n">
+      <c r="ME2" t="n">
         <v>1067</v>
       </c>
-      <c r="ME2" t="n">
+      <c r="MF2" t="n">
         <v>1039.1</v>
       </c>
-      <c r="MF2" t="n">
+      <c r="MG2" t="n">
         <v>974.5</v>
       </c>
-      <c r="MG2" t="n">
+      <c r="MH2" t="n">
         <v>978.4</v>
       </c>
-      <c r="MH2" t="n">
+      <c r="MI2" t="n">
         <v>1020.8</v>
       </c>
-      <c r="MI2" t="n">
+      <c r="MJ2" t="n">
         <v>976.6</v>
       </c>
-      <c r="MJ2" t="n">
+      <c r="MK2" t="n">
         <v>964.9</v>
       </c>
-      <c r="MK2" t="n">
+      <c r="ML2" t="n">
         <v>966.4</v>
       </c>
-      <c r="ML2" t="n">
+      <c r="MM2" t="n">
         <v>915.4</v>
       </c>
-      <c r="MM2" t="n">
+      <c r="MN2" t="n">
         <v>1002.1</v>
       </c>
-      <c r="MN2" t="n">
+      <c r="MO2" t="n">
         <v>1045.8</v>
       </c>
-      <c r="MO2" t="n">
+      <c r="MP2" t="n">
         <v>883.3</v>
       </c>
-      <c r="MP2" t="n">
+      <c r="MQ2" t="n">
         <v>850.2</v>
       </c>
-      <c r="MQ2" t="n">
+      <c r="MR2" t="n">
         <v>829.8</v>
       </c>
-      <c r="MR2" t="n">
+      <c r="MS2" t="n">
         <v>753.9</v>
       </c>
-      <c r="MS2" t="n">
+      <c r="MT2" t="n">
         <v>740.8</v>
       </c>
-      <c r="MT2" t="n">
+      <c r="MU2" t="n">
         <v>757.7</v>
       </c>
-      <c r="MU2" t="n">
+      <c r="MV2" t="n">
         <v>730</v>
       </c>
-      <c r="MV2" t="n">
+      <c r="MW2" t="n">
         <v>719.8</v>
       </c>
-      <c r="MW2" t="n">
+      <c r="MX2" t="n">
         <v>773.6</v>
       </c>
-      <c r="MX2" t="n">
+      <c r="MY2" t="n">
         <v>813.2</v>
       </c>
-      <c r="MY2" t="n">
+      <c r="MZ2" t="n">
         <v>806.7</v>
       </c>
-      <c r="MZ2" t="n">
+      <c r="NA2" t="n">
         <v>833.5</v>
       </c>
-      <c r="NA2" t="n">
+      <c r="NB2" t="n">
         <v>737.2</v>
       </c>
-      <c r="NB2" t="n">
+      <c r="NC2" t="n">
         <v>707.8</v>
       </c>
-      <c r="NC2" t="n">
+      <c r="ND2" t="n">
         <v>695.7</v>
       </c>
-      <c r="ND2" t="n">
+      <c r="NE2" t="n">
         <v>635.3</v>
       </c>
-      <c r="NE2" t="n">
+      <c r="NF2" t="n">
         <v>625</v>
       </c>
-      <c r="NF2" t="n">
+      <c r="NG2" t="n">
         <v>646.5</v>
       </c>
-      <c r="NG2" t="n">
+      <c r="NH2" t="n">
         <v>639</v>
       </c>
-      <c r="NH2" t="n">
+      <c r="NI2" t="n">
         <v>653.9</v>
       </c>
-      <c r="NI2" t="n">
+      <c r="NJ2" t="n">
         <v>647.5</v>
       </c>
-      <c r="NJ2" t="n">
+      <c r="NK2" t="n">
         <v>709.9</v>
       </c>
-      <c r="NK2" t="n">
+      <c r="NL2" t="n">
         <v>714.4</v>
       </c>
-      <c r="NL2" t="n">
+      <c r="NM2" t="n">
         <v>739.1</v>
       </c>
-      <c r="NM2" t="n">
+      <c r="NN2" t="n">
         <v>644</v>
       </c>
-      <c r="NN2" t="n">
+      <c r="NO2" t="n">
         <v>618.8</v>
       </c>
-      <c r="NO2" t="n">
+      <c r="NP2" t="n">
         <v>612.1</v>
       </c>
-      <c r="NP2" t="n">
+      <c r="NQ2" t="n">
         <v>562.2</v>
       </c>
-      <c r="NQ2" t="n">
+      <c r="NR2" t="n">
         <v>554.3</v>
       </c>
-      <c r="NR2" t="n">
+      <c r="NS2" t="n">
         <v>573.8</v>
       </c>
-      <c r="NS2" t="n">
+      <c r="NT2" t="n">
         <v>573.2</v>
       </c>
-      <c r="NT2" t="n">
+      <c r="NU2" t="n">
         <v>562</v>
       </c>
-      <c r="NU2" t="n">
+      <c r="NV2" t="n">
         <v>576.8</v>
       </c>
-      <c r="NV2" t="n">
+      <c r="NW2" t="n">
         <v>576.4</v>
       </c>
-      <c r="NW2" t="n">
+      <c r="NX2" t="n">
         <v>657.6</v>
       </c>
-      <c r="NX2" t="n">
+      <c r="NY2" t="n">
         <v>665.1</v>
       </c>
-      <c r="NY2" t="n">
+      <c r="NZ2" t="n">
         <v>579.6</v>
       </c>
-      <c r="NZ2" t="n">
+      <c r="OA2" t="n">
         <v>571</v>
       </c>
-      <c r="OA2" t="n">
+      <c r="OB2" t="n">
         <v>585.6</v>
       </c>
-      <c r="OB2" t="n">
+      <c r="OC2" t="n">
         <v>545.2</v>
       </c>
-      <c r="OC2" t="n">
+      <c r="OD2" t="n">
         <v>545.4</v>
       </c>
-      <c r="OD2" t="n">
+      <c r="OE2" t="n">
         <v>566.2</v>
       </c>
-      <c r="OE2" t="n">
+      <c r="OF2" t="n">
         <v>574.6</v>
       </c>
-      <c r="OF2" t="n">
+      <c r="OG2" t="n">
         <v>580</v>
       </c>
-      <c r="OG2" t="n">
+      <c r="OH2" t="n">
         <v>608.5</v>
       </c>
-      <c r="OH2" t="n">
+      <c r="OI2" t="n">
         <v>615</v>
       </c>
-      <c r="OI2" t="n">
+      <c r="OJ2" t="n">
         <v>638</v>
       </c>
-      <c r="OJ2" t="n">
+      <c r="OK2" t="n">
         <v>663.7</v>
       </c>
-      <c r="OK2" t="n">
+      <c r="OL2" t="n">
         <v>585.7</v>
       </c>
-      <c r="OL2" t="n">
+      <c r="OM2" t="n">
         <v>581.2</v>
       </c>
-      <c r="OM2" t="n">
+      <c r="ON2" t="n">
         <v>600.8</v>
       </c>
-      <c r="ON2" t="n">
+      <c r="OO2" t="n">
         <v>558.4</v>
       </c>
-      <c r="OO2" t="n">
+      <c r="OP2" t="n">
         <v>514.7</v>
       </c>
-      <c r="OP2" t="n">
+      <c r="OQ2" t="n">
         <v>521.2</v>
       </c>
-      <c r="OQ2" t="n">
+      <c r="OR2" t="n">
         <v>489.1</v>
       </c>
-      <c r="OR2" t="n">
+      <c r="OS2" t="n">
         <v>481</v>
       </c>
-      <c r="OS2" t="n">
+      <c r="OT2" t="n">
         <v>487.9</v>
       </c>
-      <c r="OT2" t="n">
+      <c r="OU2" t="n">
         <v>522.7</v>
       </c>
-      <c r="OU2" t="n">
+      <c r="OV2" t="n">
         <v>528.2</v>
       </c>
-      <c r="OV2" t="n">
+      <c r="OW2" t="n">
         <v>561.6</v>
       </c>
-      <c r="OW2" t="n">
+      <c r="OX2" t="n">
         <v>471.2</v>
       </c>
-      <c r="OX2" t="n">
+      <c r="OY2" t="n">
         <v>451</v>
       </c>
-      <c r="OY2" t="n">
+      <c r="OZ2" t="n">
         <v>439.3</v>
       </c>
-      <c r="OZ2" t="n">
+      <c r="PA2" t="n">
         <v>396.1</v>
       </c>
-      <c r="PA2" t="n">
+      <c r="PB2" t="n">
         <v>390.7</v>
       </c>
-      <c r="PB2" t="n">
+      <c r="PC2" t="n">
         <v>400.7</v>
       </c>
-      <c r="PC2" t="n">
+      <c r="PD2" t="n">
         <v>389.7</v>
       </c>
-      <c r="PD2" t="n">
+      <c r="PE2" t="n">
         <v>383.9</v>
       </c>
-      <c r="PE2" t="n">
+      <c r="PF2" t="n">
         <v>391.5</v>
       </c>
-      <c r="PF2" t="n">
+      <c r="PG2" t="n">
         <v>394.1</v>
       </c>
-      <c r="PG2" t="n">
+      <c r="PH2" t="n">
         <v>445.2</v>
       </c>
-      <c r="PH2" t="n">
+      <c r="PI2" t="n">
         <v>481.2</v>
       </c>
-      <c r="PI2" t="n">
+      <c r="PJ2" t="n">
         <v>405.4</v>
       </c>
-      <c r="PJ2" t="n">
+      <c r="PK2" t="n">
         <v>382.5</v>
       </c>
-      <c r="PK2" t="n">
+      <c r="PL2" t="n">
         <v>378.3</v>
       </c>
-      <c r="PL2" t="n">
+      <c r="PM2" t="n">
         <v>333.9</v>
       </c>
-      <c r="PM2" t="n">
+      <c r="PN2" t="n">
         <v>326.6</v>
       </c>
-      <c r="PN2" t="n">
+      <c r="PO2" t="n">
         <v>340.2</v>
       </c>
-      <c r="PO2" t="n">
+      <c r="PP2" t="n">
         <v>332.9</v>
       </c>
-      <c r="PP2" t="n">
+      <c r="PQ2" t="n">
         <v>329.4</v>
       </c>
-      <c r="PQ2" t="n">
+      <c r="PR2" t="n">
         <v>335.3</v>
       </c>
-      <c r="PR2" t="n">
+      <c r="PS2" t="n">
         <v>346.7</v>
       </c>
-      <c r="PS2" t="n">
+      <c r="PT2" t="n">
         <v>381.6</v>
       </c>
-      <c r="PT2" t="n">
+      <c r="PU2" t="n">
         <v>411.1</v>
       </c>
-      <c r="PU2" t="n">
+      <c r="PV2" t="n">
         <v>341.7</v>
       </c>
-      <c r="PV2" t="n">
+      <c r="PW2" t="n">
         <v>319.5</v>
       </c>
-      <c r="PW2" t="n">
+      <c r="PX2" t="n">
         <v>317.8</v>
       </c>
-      <c r="PX2" t="n">
+      <c r="PY2" t="n">
         <v>284.2</v>
       </c>
-      <c r="PY2" t="n">
+      <c r="PZ2" t="n">
         <v>282</v>
       </c>
-      <c r="PZ2" t="n">
+      <c r="QA2" t="n">
         <v>295.2</v>
       </c>
-      <c r="QA2" t="n">
+      <c r="QB2" t="n">
         <v>291.8</v>
       </c>
-      <c r="QB2" t="n">
+      <c r="QC2" t="n">
         <v>290.1</v>
       </c>
-      <c r="QC2" t="n">
+      <c r="QD2" t="n">
         <v>308.5</v>
       </c>
-      <c r="QD2" t="n">
+      <c r="QE2" t="n">
         <v>320.6</v>
       </c>
-      <c r="QE2" t="n">
+      <c r="QF2" t="n">
         <v>338.9</v>
       </c>
-      <c r="QF2" t="n">
+      <c r="QG2" t="n">
         <v>329</v>
       </c>
-      <c r="QG2" t="n">
+      <c r="QH2" t="n">
         <v>265.8</v>
       </c>
-      <c r="QH2" t="n">
+      <c r="QI2" t="n">
         <v>240.2</v>
       </c>
-      <c r="QI2" t="n">
+      <c r="QJ2" t="n">
         <v>232.3</v>
       </c>
-      <c r="QJ2" t="n">
+      <c r="QK2" t="n">
         <v>205.9</v>
       </c>
-      <c r="QK2" t="n">
+      <c r="QL2" t="n">
         <v>199.5</v>
       </c>
-      <c r="QL2" t="n">
+      <c r="QM2" t="n">
         <v>207.3</v>
       </c>
-      <c r="QM2" t="n">
+      <c r="QN2" t="n">
         <v>204.4</v>
       </c>
-      <c r="QN2" t="n">
+      <c r="QO2" t="n">
         <v>198.3</v>
       </c>
-      <c r="QO2" t="n">
+      <c r="QP2" t="n">
         <v>199.2</v>
       </c>
-      <c r="QP2" t="n">
+      <c r="QQ2" t="n">
         <v>201.8</v>
       </c>
-      <c r="QQ2" t="n">
+      <c r="QR2" t="n">
         <v>245.5</v>
       </c>
-      <c r="QR2" t="inlineStr"/>
       <c r="QS2" t="inlineStr"/>
       <c r="QT2" t="inlineStr"/>
       <c r="QU2" t="inlineStr"/>
@@ -4071,6 +4076,7 @@
       <c r="RA2" t="inlineStr"/>
       <c r="RB2" t="inlineStr"/>
       <c r="RC2" t="inlineStr"/>
+      <c r="RD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4078,783 +4084,783 @@
           <t>Total Retail Sales of Consumer Goods, Accumulated (100 million yuan)</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
         <v>74426</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
         <v>440823.2</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>399554.3</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>358511.1</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>318057.2</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>281224.2</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>246829.4</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>211904.3</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>174318.5</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>138373.4</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>105220.8</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>69736.8</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
         <v>391980.6</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>351414.7</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>311900.5</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>273324</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>238029.4</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>204458.7</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>172256.2</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>138730.3</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>106757.5</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>78579.7</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>52129.8</v>
       </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="n">
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
         <v>411649</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>372872.3</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>334778.5</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>296674.2</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>262179.3</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>228282.9</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>195209.7</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>161331.6</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>128375.8</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
         <v>97789.7</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>66064</v>
       </c>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="n">
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>380986.9</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AP3" t="n">
         <v>345093.4</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AQ3" t="n">
         <v>309833.7</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="n">
         <v>274299.3</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
         <v>242293.9</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AT3" t="n">
         <v>210751.6</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3" t="n">
         <v>180017.9</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AV3" t="n">
         <v>149176.4</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AW3" t="n">
         <v>118817.3</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AX3" t="n">
         <v>90275.39999999999</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
         <v>61081.8</v>
       </c>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="n">
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="n">
         <v>366261.6</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BB3" t="n">
         <v>331527.5</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BC3" t="n">
         <v>297419.4</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>263178.4</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BE3" t="n">
         <v>232308.2</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BF3" t="n">
         <v>201978.5</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BG3" t="n">
         <v>172368.7</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BH3" t="n">
         <v>142561.1</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BI3" t="n">
         <v>113101.9</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BJ3" t="n">
         <v>85823.39999999999</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BK3" t="n">
         <v>57959.7</v>
       </c>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="n">
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="n">
         <v>332316</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BN3" t="n">
         <v>300559.5</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BO3" t="n">
         <v>269601</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BP3" t="n">
         <v>238481.8</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BQ3" t="n">
         <v>210505.4</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BR3" t="n">
         <v>182965.8</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BS3" t="n">
         <v>156138.3</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BT3" t="n">
         <v>129280.9</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BU3" t="n">
         <v>102670.2</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BV3" t="n">
         <v>78024.39999999999</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BW3" t="n">
         <v>52910.3</v>
       </c>
-      <c r="BW3" t="inlineStr"/>
-      <c r="BX3" t="n">
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="n">
         <v>300930.8</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BZ3" t="n">
         <v>272296.1</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="CA3" t="n">
         <v>244358.8</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CB3" t="n">
         <v>216079.9</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CC3" t="n">
         <v>190809.3</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CD3" t="n">
         <v>165915.9</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CE3" t="n">
         <v>141577.1</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CF3" t="n">
         <v>117296.9</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CG3" t="n">
         <v>93102</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CH3" t="n">
         <v>70715.3</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CI3" t="n">
         <v>47992.5</v>
       </c>
-      <c r="CI3" t="inlineStr"/>
-      <c r="CJ3" t="n">
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="n">
         <v>262394.1</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CL3" t="n">
         <v>236592.8</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CM3" t="n">
         <v>213118.1</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="CN3" t="n">
         <v>189150.8</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="CO3" t="n">
         <v>166108.4</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="CP3" t="n">
         <v>144974.5</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="CQ3" t="n">
         <v>124198.7</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="CR3" t="n">
         <v>103032.2</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="CS3" t="n">
         <v>81782.39999999999</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="CT3" t="n">
         <v>62081.2</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="CU3" t="n">
         <v>42280.7</v>
       </c>
-      <c r="CU3" t="inlineStr"/>
-      <c r="CV3" t="n">
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="n">
         <v>234380</v>
       </c>
-      <c r="CW3" t="n">
+      <c r="CX3" t="n">
         <v>211320.2</v>
       </c>
-      <c r="CX3" t="n">
+      <c r="CY3" t="n">
         <v>190308.3</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="CZ3" t="n">
         <v>168817</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="DA3" t="n">
         <v>148163.7</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DB3" t="n">
         <v>129277.5</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="DC3" t="n">
         <v>110764.3</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DD3" t="n">
         <v>91937.60000000001</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DE3" t="n">
         <v>73051.3</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="DF3" t="n">
         <v>55451</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="DG3" t="n">
         <v>37809.8</v>
       </c>
-      <c r="DG3" t="inlineStr"/>
-      <c r="DH3" t="n">
+      <c r="DH3" t="inlineStr"/>
+      <c r="DI3" t="n">
         <v>207166.7</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="DJ3" t="n">
         <v>186832.5</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="DK3" t="n">
         <v>168355.8</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="DL3" t="n">
         <v>149422</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DM3" t="n">
         <v>131195.4</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DN3" t="n">
         <v>114536.5</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DO3" t="n">
         <v>98221.60000000001</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DP3" t="n">
         <v>81636.7</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DQ3" t="n">
         <v>64921.9</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DR3" t="n">
         <v>49318.8</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DS3" t="n">
         <v>33668.6</v>
       </c>
-      <c r="DS3" t="inlineStr"/>
-      <c r="DT3" t="n">
+      <c r="DT3" t="inlineStr"/>
+      <c r="DU3" t="n">
         <v>181225.8</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DV3" t="n">
         <v>163486.1</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DW3" t="n">
         <v>147357.2</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DX3" t="n">
         <v>130810.8</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DY3" t="n">
         <v>114945.7</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>100240.7</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>85832.7</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
         <v>71267.60000000001</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>56570.8</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>42921.8</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>29018.1</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EF3" t="n">
         <v>15249</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EG3" t="n">
         <v>154553.7</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>139224.2</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>125313.3</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>111028.5</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>97492</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>84922.2</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>72669.39999999999</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>60339.5</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>47884.4</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>36374</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>25052.3</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ER3" t="n">
         <v>12718.1</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ES3" t="n">
         <v>125342.7</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ET3" t="n">
         <v>112732.7</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="EU3" t="n">
         <v>101393.7</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>89676.10000000001</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EW3" t="n">
         <v>78763.3</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EX3" t="n">
         <v>68647.7</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="EY3" t="n">
         <v>58711.2</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="EZ3" t="n">
         <v>48769.6</v>
       </c>
-      <c r="EZ3" t="n">
+      <c r="FA3" t="n">
         <v>38741.2</v>
       </c>
-      <c r="FA3" t="n">
+      <c r="FB3" t="n">
         <v>29398</v>
       </c>
-      <c r="FB3" t="n">
+      <c r="FC3" t="n">
         <v>20080.4</v>
       </c>
-      <c r="FC3" t="n">
+      <c r="FD3" t="n">
         <v>10756.6</v>
       </c>
-      <c r="FD3" t="n">
+      <c r="FE3" t="n">
         <v>108487.7</v>
       </c>
-      <c r="FE3" t="n">
+      <c r="FF3" t="n">
         <v>97759.2</v>
       </c>
-      <c r="FF3" t="n">
+      <c r="FG3" t="n">
         <v>87968.39999999999</v>
       </c>
-      <c r="FG3" t="n">
+      <c r="FH3" t="n">
         <v>77885.7</v>
       </c>
-      <c r="FH3" t="n">
+      <c r="FI3" t="n">
         <v>68439.2</v>
       </c>
-      <c r="FI3" t="n">
+      <c r="FJ3" t="n">
         <v>59671.5</v>
       </c>
-      <c r="FJ3" t="n">
+      <c r="FK3" t="n">
         <v>51042.7</v>
       </c>
-      <c r="FK3" t="n">
+      <c r="FL3" t="n">
         <v>42400.7</v>
       </c>
-      <c r="FL3" t="n">
+      <c r="FM3" t="n">
         <v>33697.2</v>
       </c>
-      <c r="FM3" t="n">
+      <c r="FN3" t="n">
         <v>25555.2</v>
       </c>
-      <c r="FN3" t="n">
+      <c r="FO3" t="n">
         <v>17432</v>
       </c>
-      <c r="FO3" t="n">
+      <c r="FP3" t="n">
         <v>9077.299999999999</v>
       </c>
-      <c r="FP3" t="n">
+      <c r="FQ3" t="n">
         <v>89210</v>
       </c>
-      <c r="FQ3" t="n">
+      <c r="FR3" t="n">
         <v>80194.7</v>
       </c>
-      <c r="FR3" t="n">
+      <c r="FS3" t="n">
         <v>72090</v>
       </c>
-      <c r="FS3" t="n">
+      <c r="FT3" t="n">
         <v>63827</v>
       </c>
-      <c r="FT3" t="n">
+      <c r="FU3" t="n">
         <v>56158.6</v>
       </c>
-      <c r="FU3" t="n">
+      <c r="FV3" t="n">
         <v>49042</v>
       </c>
-      <c r="FV3" t="n">
+      <c r="FW3" t="n">
         <v>42043.8</v>
       </c>
-      <c r="FW3" t="n">
+      <c r="FX3" t="n">
         <v>35017.8</v>
       </c>
-      <c r="FX3" t="n">
+      <c r="FY3" t="n">
         <v>27860.3</v>
       </c>
-      <c r="FY3" t="n">
+      <c r="FZ3" t="n">
         <v>21187.8</v>
       </c>
-      <c r="FZ3" t="n">
+      <c r="GA3" t="n">
         <v>14502</v>
       </c>
-      <c r="GA3" t="n">
+      <c r="GB3" t="n">
         <v>7488.3</v>
       </c>
-      <c r="GB3" t="n">
+      <c r="GC3" t="n">
         <v>76410</v>
       </c>
-      <c r="GC3" t="n">
+      <c r="GD3" t="n">
         <v>68910.8</v>
       </c>
-      <c r="GD3" t="n">
+      <c r="GE3" t="n">
         <v>62089.1</v>
       </c>
-      <c r="GE3" t="n">
+      <c r="GF3" t="n">
         <v>55091.4</v>
       </c>
-      <c r="GF3" t="n">
+      <c r="GG3" t="n">
         <v>48537.8</v>
       </c>
-      <c r="GG3" t="n">
+      <c r="GH3" t="n">
         <v>42460.4</v>
       </c>
-      <c r="GH3" t="n">
+      <c r="GI3" t="n">
         <v>36448.2</v>
       </c>
-      <c r="GI3" t="n">
+      <c r="GJ3" t="n">
         <v>30390.4</v>
       </c>
-      <c r="GJ3" t="n">
+      <c r="GK3" t="n">
         <v>24214.8</v>
       </c>
-      <c r="GK3" t="n">
+      <c r="GL3" t="n">
         <v>18440.2</v>
       </c>
-      <c r="GL3" t="n">
+      <c r="GM3" t="n">
         <v>12643.5</v>
       </c>
-      <c r="GM3" t="n">
+      <c r="GN3" t="n">
         <v>6641.6</v>
       </c>
-      <c r="GN3" t="n">
+      <c r="GO3" t="n">
         <v>67176.60000000001</v>
       </c>
-      <c r="GO3" t="n">
+      <c r="GP3" t="n">
         <v>56836.2</v>
       </c>
-      <c r="GP3" t="n">
+      <c r="GQ3" t="n">
         <v>50927.2</v>
       </c>
-      <c r="GQ3" t="n">
+      <c r="GR3" t="n">
         <v>45080.6</v>
       </c>
-      <c r="GR3" t="n">
+      <c r="GS3" t="n">
         <v>39585.4</v>
       </c>
-      <c r="GS3" t="n">
+      <c r="GT3" t="n">
         <v>34544.6</v>
       </c>
-      <c r="GT3" t="n">
+      <c r="GU3" t="n">
         <v>29609.7</v>
       </c>
-      <c r="GU3" t="n">
+      <c r="GV3" t="n">
         <v>24674.7</v>
       </c>
-      <c r="GV3" t="n">
+      <c r="GW3" t="n">
         <v>19775.5</v>
       </c>
-      <c r="GW3" t="n">
+      <c r="GX3" t="n">
         <v>15112.2</v>
       </c>
-      <c r="GX3" t="n">
+      <c r="GY3" t="n">
         <v>10313.1</v>
       </c>
-      <c r="GY3" t="n">
+      <c r="GZ3" t="n">
         <v>5300.9</v>
       </c>
-      <c r="GZ3" t="n">
+      <c r="HA3" t="n">
         <v>53950.1</v>
       </c>
-      <c r="HA3" t="n">
+      <c r="HB3" t="n">
         <v>48387.6</v>
       </c>
-      <c r="HB3" t="n">
+      <c r="HC3" t="n">
         <v>43422</v>
       </c>
-      <c r="HC3" t="n">
+      <c r="HD3" t="n">
         <v>38438.8</v>
       </c>
-      <c r="HD3" t="n">
+      <c r="HE3" t="n">
         <v>33721.1</v>
       </c>
-      <c r="HE3" t="n">
+      <c r="HF3" t="n">
         <v>29458.4</v>
       </c>
-      <c r="HF3" t="n">
+      <c r="HG3" t="n">
         <v>25249.2</v>
       </c>
-      <c r="HG3" t="n">
+      <c r="HH3" t="n">
         <v>20998.5</v>
       </c>
-      <c r="HH3" t="n">
+      <c r="HI3" t="n">
         <v>16832.4</v>
       </c>
-      <c r="HI3" t="n">
+      <c r="HJ3" t="n">
         <v>12830.6</v>
       </c>
-      <c r="HJ3" t="n">
+      <c r="HK3" t="n">
         <v>8780.799999999999</v>
       </c>
-      <c r="HK3" t="n">
+      <c r="HL3" t="n">
         <v>4569.4</v>
       </c>
-      <c r="HL3" t="n">
+      <c r="HM3" t="n">
         <v>45842</v>
       </c>
-      <c r="HM3" t="n">
+      <c r="HN3" t="n">
         <v>41106.3</v>
       </c>
-      <c r="HN3" t="n">
+      <c r="HO3" t="n">
         <v>36903.6</v>
       </c>
-      <c r="HO3" t="n">
+      <c r="HP3" t="n">
         <v>32699.2</v>
       </c>
-      <c r="HP3" t="n">
+      <c r="HQ3" t="n">
         <v>28727.4</v>
       </c>
-      <c r="HQ3" t="n">
+      <c r="HR3" t="n">
         <v>25117.8</v>
       </c>
-      <c r="HR3" t="n">
+      <c r="HS3" t="n">
         <v>21555.7</v>
       </c>
-      <c r="HS3" t="n">
+      <c r="HT3" t="n">
         <v>17978.8</v>
       </c>
-      <c r="HT3" t="n">
+      <c r="HU3" t="n">
         <v>14515.5</v>
       </c>
-      <c r="HU3" t="n">
+      <c r="HV3" t="n">
         <v>11108.6</v>
       </c>
-      <c r="HV3" t="n">
+      <c r="HW3" t="n">
         <v>7613.8</v>
       </c>
-      <c r="HW3" t="n">
+      <c r="HX3" t="n">
         <v>3907.4</v>
       </c>
-      <c r="HX3" t="n">
+      <c r="HY3" t="n">
         <v>40910.5</v>
       </c>
-      <c r="HY3" t="n">
+      <c r="HZ3" t="n">
         <v>36506.1</v>
       </c>
-      <c r="HZ3" t="n">
+      <c r="IA3" t="n">
         <v>32773</v>
       </c>
-      <c r="IA3" t="n">
+      <c r="IB3" t="n">
         <v>29111.1</v>
       </c>
-      <c r="IB3" t="n">
+      <c r="IC3" t="n">
         <v>25688.7</v>
       </c>
-      <c r="IC3" t="n">
+      <c r="ID3" t="n">
         <v>22545</v>
       </c>
-      <c r="ID3" t="n">
+      <c r="IE3" t="n">
         <v>19448.4</v>
       </c>
-      <c r="IE3" t="n">
+      <c r="IF3" t="n">
         <v>16289.6</v>
       </c>
-      <c r="IF3" t="n">
+      <c r="IG3" t="n">
         <v>13087.5</v>
       </c>
-      <c r="IG3" t="n">
+      <c r="IH3" t="n">
         <v>10035.3</v>
       </c>
-      <c r="IH3" t="n">
+      <c r="II3" t="n">
         <v>6920.5</v>
       </c>
-      <c r="II3" t="n">
+      <c r="IJ3" t="n">
         <v>3596.1</v>
       </c>
-      <c r="IJ3" t="n">
+      <c r="IK3" t="n">
         <v>37595.2</v>
       </c>
-      <c r="IK3" t="n">
+      <c r="IL3" t="n">
         <v>33561.9</v>
       </c>
-      <c r="IL3" t="n">
+      <c r="IM3" t="n">
         <v>30140.2</v>
       </c>
-      <c r="IM3" t="n">
+      <c r="IN3" t="n">
         <v>26792.9</v>
       </c>
-      <c r="IN3" t="n">
+      <c r="IO3" t="n">
         <v>23656</v>
       </c>
-      <c r="IO3" t="n">
+      <c r="IP3" t="n">
         <v>20766.6</v>
       </c>
-      <c r="IP3" t="n">
+      <c r="IQ3" t="n">
         <v>17915.2</v>
       </c>
-      <c r="IQ3" t="n">
+      <c r="IR3" t="n">
         <v>15006.5</v>
       </c>
-      <c r="IR3" t="n">
+      <c r="IS3" t="n">
         <v>12076.9</v>
       </c>
-      <c r="IS3" t="n">
+      <c r="IT3" t="n">
         <v>9256</v>
       </c>
-      <c r="IT3" t="n">
+      <c r="IU3" t="n">
         <v>6379.9</v>
       </c>
-      <c r="IU3" t="n">
+      <c r="IV3" t="n">
         <v>3332.8</v>
       </c>
-      <c r="IV3" t="n">
+      <c r="IW3" t="n">
         <v>34152.6</v>
       </c>
-      <c r="IW3" t="n">
+      <c r="IX3" t="n">
         <v>30472.6</v>
       </c>
-      <c r="IX3" t="n">
+      <c r="IY3" t="n">
         <v>27364.8</v>
       </c>
-      <c r="IY3" t="n">
+      <c r="IZ3" t="n">
         <v>24335.5</v>
       </c>
-      <c r="IZ3" t="n">
+      <c r="JA3" t="n">
         <v>21481.2</v>
       </c>
-      <c r="JA3" t="n">
+      <c r="JB3" t="n">
         <v>18844.9</v>
       </c>
-      <c r="JB3" t="n">
+      <c r="JC3" t="n">
         <v>16248</v>
       </c>
-      <c r="JC3" t="n">
+      <c r="JD3" t="n">
         <v>13602.8</v>
       </c>
-      <c r="JD3" t="n">
+      <c r="JE3" t="n">
         <v>10965.9</v>
       </c>
-      <c r="JE3" t="n">
+      <c r="JF3" t="n">
         <v>8394.4</v>
       </c>
-      <c r="JF3" t="n">
+      <c r="JG3" t="n">
         <v>5767.8</v>
       </c>
-      <c r="JG3" t="n">
+      <c r="JH3" t="n">
         <v>2962.9</v>
       </c>
-      <c r="JH3" t="inlineStr"/>
       <c r="JI3" t="inlineStr"/>
       <c r="JJ3" t="inlineStr"/>
       <c r="JK3" t="inlineStr"/>
@@ -5058,6 +5064,7 @@
       <c r="RA3" t="inlineStr"/>
       <c r="RB3" t="inlineStr"/>
       <c r="RC3" t="inlineStr"/>
+      <c r="RD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5067,759 +5074,759 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
         <v>1.7</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>3.9</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>4.9</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>4.4</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>2.5</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>8.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>12.1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>12.4</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>17.7</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>34.2</v>
       </c>
-      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="n">
         <v>4.6</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>5</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>4.3</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>3.3</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>0.5</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-1.1</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>-1.8</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-2.8</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>-7.5</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>-15.8</v>
       </c>
-      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="n">
-        <v>8</v>
-      </c>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
         <v>8</v>
       </c>
       <c r="AD4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE4" t="n">
         <v>7.2</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>7.8</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>7.5</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>7.6</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>8.6</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>7.2</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="n">
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>8.1</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AQ4" t="n">
         <v>8.6</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AR4" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AS4" t="n">
         <v>9</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AT4" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AU4" t="n">
         <v>9</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AV4" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AW4" t="n">
         <v>9.4</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AX4" t="n">
         <v>10.1</v>
       </c>
-      <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="n">
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="n">
         <v>9.4</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>10.2</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BC4" t="n">
         <v>10</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>10.3</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BE4" t="n">
         <v>10.1</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BF4" t="n">
         <v>10.4</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BG4" t="n">
         <v>11</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>10.7</v>
       </c>
       <c r="BH4" t="n">
         <v>10.7</v>
       </c>
       <c r="BI4" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="BJ4" t="n">
         <v>10.9</v>
       </c>
-      <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="n">
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="n">
         <v>10.9</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BN4" t="n">
         <v>10.8</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BO4" t="n">
         <v>10</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BP4" t="n">
         <v>10.7</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BQ4" t="n">
         <v>10.6</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BR4" t="n">
         <v>10.2</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BS4" t="n">
         <v>10.6</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BT4" t="n">
         <v>10</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BU4" t="n">
         <v>10.1</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BV4" t="n">
         <v>10.5</v>
       </c>
-      <c r="BV4" t="inlineStr"/>
       <c r="BW4" t="inlineStr"/>
-      <c r="BX4" t="n">
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="n">
         <v>11.1</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BZ4" t="n">
         <v>11.2</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="CA4" t="n">
         <v>11</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CB4" t="n">
         <v>10.9</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CC4" t="n">
         <v>10.8</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CD4" t="n">
         <v>10.5</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CE4" t="n">
         <v>10.6</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CF4" t="n">
         <v>10.1</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CG4" t="n">
         <v>10</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CH4" t="n">
         <v>10.2</v>
       </c>
-      <c r="CH4" t="inlineStr"/>
       <c r="CI4" t="inlineStr"/>
-      <c r="CJ4" t="n">
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="n">
         <v>11.9</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CL4" t="n">
         <v>11.7</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CM4" t="n">
         <v>11.5</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="CN4" t="n">
         <v>11.6</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="CO4" t="n">
         <v>11.9</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="CP4" t="n">
         <v>12.2</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="CQ4" t="n">
         <v>12.4</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="CR4" t="n">
         <v>12.5</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="CS4" t="n">
         <v>11.9</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="CT4" t="n">
         <v>12.2</v>
       </c>
-      <c r="CT4" t="inlineStr"/>
       <c r="CU4" t="inlineStr"/>
-      <c r="CV4" t="n">
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="n">
         <v>13.6</v>
       </c>
-      <c r="CW4" t="n">
+      <c r="CX4" t="n">
         <v>13.7</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>13.3</v>
       </c>
       <c r="CY4" t="n">
         <v>13.3</v>
       </c>
       <c r="CZ4" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="DA4" t="n">
         <v>13.4</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="DB4" t="n">
         <v>13.2</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="DC4" t="n">
         <v>13.3</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="DD4" t="n">
         <v>12.9</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="DE4" t="n">
         <v>12.8</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="DF4" t="n">
         <v>12.6</v>
       </c>
-      <c r="DF4" t="inlineStr"/>
       <c r="DG4" t="inlineStr"/>
-      <c r="DH4" t="n">
+      <c r="DH4" t="inlineStr"/>
+      <c r="DI4" t="n">
         <v>15.2</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="DJ4" t="n">
         <v>14.9</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="DK4" t="n">
         <v>14.5</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="DL4" t="n">
         <v>14.2</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="DM4" t="n">
         <v>13.2</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DN4" t="n">
         <v>13.1</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DO4" t="n">
         <v>13.7</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DP4" t="n">
         <v>13.8</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DQ4" t="n">
         <v>14.1</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DR4" t="n">
         <v>15.2</v>
       </c>
-      <c r="DR4" t="inlineStr"/>
       <c r="DS4" t="inlineStr"/>
-      <c r="DT4" t="n">
+      <c r="DT4" t="inlineStr"/>
+      <c r="DU4" t="n">
         <v>18.1</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DV4" t="n">
         <v>17.3</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DW4" t="n">
         <v>17.2</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DX4" t="n">
         <v>17.7</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DY4" t="n">
         <v>17</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DZ4" t="n">
         <v>17.2</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EA4" t="n">
         <v>17.7</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EB4" t="n">
         <v>16.9</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EC4" t="n">
         <v>17.1</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>17.4</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>11.6</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EF4" t="n">
         <v>19.9</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EG4" t="n">
         <v>19.1</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EH4" t="n">
         <v>18.7</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>18.6</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>18.8</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>18.4</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>17.9</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>18.3</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>18.7</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>18.5</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>18</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>22.1</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ER4" t="n">
         <v>14</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ES4" t="n">
         <v>17.5</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="ET4" t="n">
         <v>15.8</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="EU4" t="n">
         <v>16.2</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EV4" t="n">
         <v>15.5</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="EW4" t="n">
         <v>15.4</v>
       </c>
-      <c r="EW4" t="n">
+      <c r="EX4" t="n">
         <v>15.2</v>
       </c>
-      <c r="EX4" t="n">
+      <c r="EY4" t="n">
         <v>15</v>
       </c>
-      <c r="EY4" t="n">
+      <c r="EZ4" t="n">
         <v>15.2</v>
       </c>
-      <c r="EZ4" t="n">
+      <c r="FA4" t="n">
         <v>14.8</v>
       </c>
-      <c r="FA4" t="n">
+      <c r="FB4" t="n">
         <v>14.7</v>
       </c>
-      <c r="FB4" t="n">
+      <c r="FC4" t="n">
         <v>11.6</v>
       </c>
-      <c r="FC4" t="n">
+      <c r="FD4" t="n">
         <v>18.5</v>
       </c>
-      <c r="FD4" t="n">
+      <c r="FE4" t="n">
         <v>19</v>
       </c>
-      <c r="FE4" t="n">
+      <c r="FF4" t="n">
         <v>20.8</v>
       </c>
-      <c r="FF4" t="n">
+      <c r="FG4" t="n">
         <v>22</v>
-      </c>
-      <c r="FG4" t="n">
-        <v>23.2</v>
       </c>
       <c r="FH4" t="n">
         <v>23.2</v>
       </c>
       <c r="FI4" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="FJ4" t="n">
         <v>23.3</v>
       </c>
-      <c r="FJ4" t="n">
+      <c r="FK4" t="n">
         <v>23</v>
       </c>
-      <c r="FK4" t="n">
+      <c r="FL4" t="n">
         <v>21.6</v>
       </c>
-      <c r="FL4" t="n">
+      <c r="FM4" t="n">
         <v>22</v>
       </c>
-      <c r="FM4" t="n">
+      <c r="FN4" t="n">
         <v>21.5</v>
       </c>
-      <c r="FN4" t="n">
+      <c r="FO4" t="n">
         <v>19.1</v>
       </c>
-      <c r="FO4" t="n">
+      <c r="FP4" t="n">
         <v>21.2</v>
       </c>
-      <c r="FP4" t="n">
+      <c r="FQ4" t="n">
         <v>20.2</v>
       </c>
-      <c r="FQ4" t="n">
+      <c r="FR4" t="n">
         <v>18.8</v>
       </c>
-      <c r="FR4" t="n">
+      <c r="FS4" t="n">
         <v>18.1</v>
       </c>
-      <c r="FS4" t="n">
+      <c r="FT4" t="n">
         <v>17</v>
       </c>
-      <c r="FT4" t="n">
+      <c r="FU4" t="n">
         <v>17.1</v>
       </c>
-      <c r="FU4" t="n">
+      <c r="FV4" t="n">
         <v>16.4</v>
       </c>
-      <c r="FV4" t="n">
+      <c r="FW4" t="n">
         <v>16</v>
       </c>
-      <c r="FW4" t="n">
+      <c r="FX4" t="n">
         <v>15.9</v>
       </c>
-      <c r="FX4" t="n">
+      <c r="FY4" t="n">
         <v>15.5</v>
       </c>
-      <c r="FY4" t="n">
+      <c r="FZ4" t="n">
         <v>15.3</v>
       </c>
-      <c r="FZ4" t="n">
+      <c r="GA4" t="n">
         <v>16.9</v>
       </c>
-      <c r="GA4" t="n">
+      <c r="GB4" t="n">
         <v>12.7</v>
       </c>
-      <c r="GB4" t="n">
+      <c r="GC4" t="n">
         <v>14.6</v>
       </c>
-      <c r="GC4" t="n">
+      <c r="GD4" t="n">
         <v>14.1</v>
       </c>
-      <c r="GD4" t="n">
+      <c r="GE4" t="n">
         <v>14.3</v>
       </c>
-      <c r="GE4" t="n">
+      <c r="GF4" t="n">
         <v>13.9</v>
       </c>
-      <c r="GF4" t="n">
+      <c r="GG4" t="n">
         <v>13.8</v>
       </c>
-      <c r="GG4" t="n">
+      <c r="GH4" t="n">
         <v>13.7</v>
       </c>
-      <c r="GH4" t="n">
+      <c r="GI4" t="n">
         <v>13.9</v>
       </c>
-      <c r="GI4" t="n">
+      <c r="GJ4" t="n">
         <v>14.2</v>
       </c>
-      <c r="GJ4" t="n">
+      <c r="GK4" t="n">
         <v>13.6</v>
       </c>
-      <c r="GK4" t="n">
+      <c r="GL4" t="n">
         <v>13.5</v>
       </c>
-      <c r="GL4" t="n">
+      <c r="GM4" t="n">
         <v>9.4</v>
       </c>
-      <c r="GM4" t="n">
+      <c r="GN4" t="n">
         <v>15.5</v>
       </c>
-      <c r="GN4" t="n">
+      <c r="GO4" t="n">
         <v>12.5</v>
       </c>
-      <c r="GO4" t="n">
+      <c r="GP4" t="n">
         <v>12.4</v>
       </c>
-      <c r="GP4" t="n">
+      <c r="GQ4" t="n">
         <v>12.8</v>
       </c>
-      <c r="GQ4" t="n">
+      <c r="GR4" t="n">
         <v>12.7</v>
       </c>
-      <c r="GR4" t="n">
+      <c r="GS4" t="n">
         <v>12.5</v>
       </c>
-      <c r="GS4" t="n">
+      <c r="GT4" t="n">
         <v>12.7</v>
       </c>
-      <c r="GT4" t="n">
+      <c r="GU4" t="n">
         <v>12.9</v>
       </c>
-      <c r="GU4" t="n">
+      <c r="GV4" t="n">
         <v>12.8</v>
       </c>
-      <c r="GV4" t="n">
+      <c r="GW4" t="n">
         <v>12.2</v>
       </c>
-      <c r="GW4" t="n">
+      <c r="GX4" t="n">
         <v>13.9</v>
       </c>
-      <c r="GX4" t="n">
+      <c r="GY4" t="n">
         <v>15.8</v>
       </c>
-      <c r="GY4" t="n">
+      <c r="GZ4" t="n">
         <v>11.5</v>
       </c>
-      <c r="GZ4" t="n">
+      <c r="HA4" t="n">
         <v>14.5</v>
       </c>
-      <c r="HA4" t="n">
+      <c r="HB4" t="n">
         <v>13.9</v>
       </c>
-      <c r="HB4" t="n">
+      <c r="HC4" t="n">
         <v>14.2</v>
       </c>
-      <c r="HC4" t="n">
+      <c r="HD4" t="n">
         <v>14</v>
       </c>
-      <c r="HD4" t="n">
+      <c r="HE4" t="n">
         <v>13.1</v>
       </c>
-      <c r="HE4" t="n">
+      <c r="HF4" t="n">
         <v>13.2</v>
       </c>
-      <c r="HF4" t="n">
+      <c r="HG4" t="n">
         <v>13.9</v>
       </c>
-      <c r="HG4" t="n">
+      <c r="HH4" t="n">
         <v>17.8</v>
       </c>
-      <c r="HH4" t="n">
+      <c r="HI4" t="n">
         <v>13.2</v>
       </c>
-      <c r="HI4" t="n">
+      <c r="HJ4" t="n">
         <v>11.1</v>
       </c>
-      <c r="HJ4" t="n">
+      <c r="HK4" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="HK4" t="n">
+      <c r="HL4" t="n">
         <v>11.8</v>
       </c>
-      <c r="HL4" t="n">
+      <c r="HM4" t="n">
         <v>10.9</v>
       </c>
-      <c r="HM4" t="n">
+      <c r="HN4" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="HN4" t="n">
+      <c r="HO4" t="n">
         <v>10.2</v>
       </c>
-      <c r="HO4" t="n">
+      <c r="HP4" t="n">
         <v>9.5</v>
       </c>
-      <c r="HP4" t="n">
+      <c r="HQ4" t="n">
         <v>9.9</v>
       </c>
-      <c r="HQ4" t="n">
+      <c r="HR4" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="HR4" t="n">
+      <c r="HS4" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="HS4" t="n">
+      <c r="HT4" t="n">
         <v>4.3</v>
       </c>
-      <c r="HT4" t="n">
+      <c r="HU4" t="n">
         <v>7.7</v>
       </c>
-      <c r="HU4" t="n">
+      <c r="HV4" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="HV4" t="n">
+      <c r="HW4" t="n">
         <v>8.5</v>
       </c>
-      <c r="HW4" t="n">
+      <c r="HX4" t="n">
         <v>10</v>
       </c>
-      <c r="HX4" t="n">
+      <c r="HY4" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="HY4" t="n">
+      <c r="HZ4" t="n">
         <v>9.1</v>
       </c>
-      <c r="HZ4" t="n">
+      <c r="IA4" t="n">
         <v>9.4</v>
       </c>
-      <c r="IA4" t="n">
+      <c r="IB4" t="n">
         <v>9.1</v>
       </c>
-      <c r="IB4" t="n">
+      <c r="IC4" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>8.6</v>
       </c>
       <c r="ID4" t="n">
         <v>8.6</v>
       </c>
       <c r="IE4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="IF4" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="IF4" t="n">
+      <c r="IG4" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="IG4" t="n">
+      <c r="IH4" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="IH4" t="n">
+      <c r="II4" t="n">
         <v>9.1</v>
       </c>
-      <c r="II4" t="n">
+      <c r="IJ4" t="n">
         <v>7.9</v>
       </c>
-      <c r="IJ4" t="n">
+      <c r="IK4" t="n">
         <v>9.6</v>
       </c>
-      <c r="IK4" t="n">
+      <c r="IL4" t="n">
         <v>10.1</v>
       </c>
-      <c r="IL4" t="n">
+      <c r="IM4" t="n">
         <v>10.5</v>
       </c>
-      <c r="IM4" t="n">
+      <c r="IN4" t="n">
         <v>9.9</v>
       </c>
-      <c r="IN4" t="n">
+      <c r="IO4" t="n">
         <v>9.6</v>
       </c>
-      <c r="IO4" t="n">
+      <c r="IP4" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="IP4" t="n">
+      <c r="IQ4" t="n">
         <v>10</v>
       </c>
-      <c r="IQ4" t="n">
+      <c r="IR4" t="n">
         <v>11.1</v>
       </c>
-      <c r="IR4" t="n">
+      <c r="IS4" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="IS4" t="n">
+      <c r="IT4" t="n">
         <v>9.5</v>
       </c>
-      <c r="IT4" t="n">
+      <c r="IU4" t="n">
         <v>8.6</v>
       </c>
-      <c r="IU4" t="n">
+      <c r="IV4" t="n">
         <v>12.5</v>
       </c>
-      <c r="IV4" t="n">
+      <c r="IW4" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="IW4" t="n">
+      <c r="IX4" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="IX4" t="n">
+      <c r="IY4" t="n">
         <v>10.4</v>
       </c>
-      <c r="IY4" t="n">
+      <c r="IZ4" t="n">
         <v>9.6</v>
       </c>
-      <c r="IZ4" t="n">
+      <c r="JA4" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="JA4" t="n">
+      <c r="JB4" t="n">
         <v>9.1</v>
       </c>
-      <c r="JB4" t="n">
+      <c r="JC4" t="n">
         <v>8.9</v>
       </c>
-      <c r="JC4" t="n">
+      <c r="JD4" t="n">
         <v>11.5</v>
       </c>
-      <c r="JD4" t="n">
+      <c r="JE4" t="n">
         <v>9.1</v>
       </c>
-      <c r="JE4" t="n">
+      <c r="JF4" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="JF4" t="n">
+      <c r="JG4" t="n">
         <v>10.5</v>
       </c>
-      <c r="JG4" t="n">
+      <c r="JH4" t="n">
         <v>11.3</v>
       </c>
-      <c r="JH4" t="inlineStr"/>
       <c r="JI4" t="inlineStr"/>
       <c r="JJ4" t="inlineStr"/>
       <c r="JK4" t="inlineStr"/>
@@ -6023,6 +6030,7 @@
       <c r="RA4" t="inlineStr"/>
       <c r="RB4" t="inlineStr"/>
       <c r="RC4" t="inlineStr"/>
+      <c r="RD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -6030,123 +6038,121 @@
           <t>Total Retail Sales of Consumer Goods, Accumulated Growth Rate (%)</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
         <v>6.7</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
         <v>12.5</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>13.7</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>14.9</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>16.4</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>18.1</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>20.7</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>23</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>25.7</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>29.6</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>33.9</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>33.8</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
         <v>-3.9</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>-4.8</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>-5.9</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-7.2</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>-8.6</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-9.9</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>-11.4</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-13.5</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>-16.2</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>-19</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>-20.5</v>
       </c>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="n">
-        <v>8</v>
-      </c>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
         <v>8</v>
       </c>
       <c r="AD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="n">
         <v>8.1</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>8.199999999999999</v>
       </c>
       <c r="AF5" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AG5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH5" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>8.4</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>8.1</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>8</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="n">
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>9</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AP5" t="n">
         <v>9.1</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AQ5" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>9.300000000000001</v>
       </c>
       <c r="AR5" t="n">
         <v>9.300000000000001</v>
@@ -6155,32 +6161,32 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AT5" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AU5" t="n">
         <v>9.4</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AV5" t="n">
         <v>9.5</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AW5" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AX5" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AY5" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="n">
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="n">
         <v>10.2</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>10.3</v>
       </c>
       <c r="BB5" t="n">
         <v>10.3</v>
       </c>
       <c r="BC5" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="BD5" t="n">
         <v>10.4</v>
@@ -6192,32 +6198,32 @@
         <v>10.4</v>
       </c>
       <c r="BG5" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="BH5" t="n">
         <v>10.3</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BI5" t="n">
         <v>10.2</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BJ5" t="n">
         <v>10</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BK5" t="n">
         <v>9.5</v>
       </c>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="n">
-        <v>10.4</v>
-      </c>
+      <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="n">
         <v>10.4</v>
       </c>
       <c r="BN5" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="BO5" t="n">
         <v>10.3</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BP5" t="n">
         <v>10.4</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>10.3</v>
       </c>
       <c r="BQ5" t="n">
         <v>10.3</v>
@@ -6226,35 +6232,35 @@
         <v>10.3</v>
       </c>
       <c r="BS5" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="BT5" t="n">
         <v>10.2</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>10.3</v>
       </c>
       <c r="BU5" t="n">
         <v>10.3</v>
       </c>
       <c r="BV5" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="BW5" t="n">
         <v>10.2</v>
       </c>
-      <c r="BW5" t="inlineStr"/>
-      <c r="BX5" t="n">
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="n">
         <v>10.7</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>10.6</v>
       </c>
       <c r="BZ5" t="n">
         <v>10.6</v>
       </c>
       <c r="CA5" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="CB5" t="n">
         <v>10.5</v>
       </c>
       <c r="CC5" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="CD5" t="n">
         <v>10.4</v>
@@ -6266,15 +6272,15 @@
         <v>10.4</v>
       </c>
       <c r="CG5" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="CH5" t="n">
         <v>10.6</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CI5" t="n">
         <v>10.7</v>
       </c>
-      <c r="CI5" t="inlineStr"/>
-      <c r="CJ5" t="n">
-        <v>12</v>
-      </c>
+      <c r="CJ5" t="inlineStr"/>
       <c r="CK5" t="n">
         <v>12</v>
       </c>
@@ -6285,7 +6291,7 @@
         <v>12</v>
       </c>
       <c r="CN5" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="CO5" t="n">
         <v>12.1</v>
@@ -6297,57 +6303,57 @@
         <v>12.1</v>
       </c>
       <c r="CR5" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="CS5" t="n">
         <v>12</v>
       </c>
       <c r="CT5" t="n">
+        <v>12</v>
+      </c>
+      <c r="CU5" t="n">
         <v>11.8</v>
       </c>
-      <c r="CU5" t="inlineStr"/>
-      <c r="CV5" t="n">
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="n">
         <v>13.1</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>13</v>
       </c>
       <c r="CX5" t="n">
         <v>13</v>
       </c>
       <c r="CY5" t="n">
+        <v>13</v>
+      </c>
+      <c r="CZ5" t="n">
         <v>12.9</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>12.8</v>
       </c>
       <c r="DA5" t="n">
         <v>12.8</v>
       </c>
       <c r="DB5" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="DC5" t="n">
         <v>12.7</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="DD5" t="n">
         <v>12.6</v>
       </c>
-      <c r="DD5" t="n">
+      <c r="DE5" t="n">
         <v>12.5</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="DF5" t="n">
         <v>12.4</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="DG5" t="n">
         <v>12.3</v>
       </c>
-      <c r="DG5" t="inlineStr"/>
-      <c r="DH5" t="n">
+      <c r="DH5" t="inlineStr"/>
+      <c r="DI5" t="n">
         <v>14.3</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="DJ5" t="n">
         <v>14.2</v>
-      </c>
-      <c r="DJ5" t="n">
-        <v>14.1</v>
       </c>
       <c r="DK5" t="n">
         <v>14.1</v>
@@ -6356,29 +6362,29 @@
         <v>14.1</v>
       </c>
       <c r="DM5" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="DN5" t="n">
         <v>14.2</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="DO5" t="n">
         <v>14.4</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DP5" t="n">
         <v>14.5</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DQ5" t="n">
         <v>14.7</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DR5" t="n">
         <v>14.8</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="DS5" t="n">
         <v>14.7</v>
       </c>
-      <c r="DS5" t="inlineStr"/>
-      <c r="DT5" t="n">
+      <c r="DT5" t="inlineStr"/>
+      <c r="DU5" t="n">
         <v>17.1</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>17</v>
       </c>
       <c r="DV5" t="n">
         <v>17</v>
@@ -6387,43 +6393,43 @@
         <v>17</v>
       </c>
       <c r="DX5" t="n">
+        <v>17</v>
+      </c>
+      <c r="DY5" t="n">
         <v>16.9</v>
-      </c>
-      <c r="DY5" t="n">
-        <v>16.8</v>
       </c>
       <c r="DZ5" t="n">
         <v>16.8</v>
       </c>
       <c r="EA5" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="EB5" t="n">
         <v>16.6</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EC5" t="n">
         <v>16.5</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="ED5" t="n">
         <v>16.3</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EE5" t="n">
         <v>15.8</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EF5" t="n">
         <v>19.9</v>
-      </c>
-      <c r="EF5" t="n">
-        <v>18.4</v>
       </c>
       <c r="EG5" t="n">
         <v>18.4</v>
       </c>
       <c r="EH5" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="EI5" t="n">
         <v>18.3</v>
       </c>
       <c r="EJ5" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="EK5" t="n">
         <v>18.2</v>
@@ -6435,34 +6441,34 @@
         <v>18.2</v>
       </c>
       <c r="EN5" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="EO5" t="n">
         <v>18.1</v>
-      </c>
-      <c r="EO5" t="n">
-        <v>17.9</v>
       </c>
       <c r="EP5" t="n">
         <v>17.9</v>
       </c>
       <c r="EQ5" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="ER5" t="n">
         <v>14</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ES5" t="n">
         <v>15.5</v>
-      </c>
-      <c r="ES5" t="n">
-        <v>15.3</v>
       </c>
       <c r="ET5" t="n">
         <v>15.3</v>
       </c>
       <c r="EU5" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="EV5" t="n">
         <v>15.1</v>
       </c>
       <c r="EW5" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="EX5" t="n">
         <v>15</v>
@@ -6477,127 +6483,127 @@
         <v>15</v>
       </c>
       <c r="FB5" t="n">
+        <v>15</v>
+      </c>
+      <c r="FC5" t="n">
         <v>15.2</v>
       </c>
-      <c r="FC5" t="n">
+      <c r="FD5" t="n">
         <v>18.5</v>
       </c>
-      <c r="FD5" t="n">
+      <c r="FE5" t="n">
         <v>21.6</v>
       </c>
-      <c r="FE5" t="n">
+      <c r="FF5" t="n">
         <v>21.9</v>
-      </c>
-      <c r="FF5" t="n">
-        <v>22</v>
       </c>
       <c r="FG5" t="n">
         <v>22</v>
       </c>
       <c r="FH5" t="n">
+        <v>22</v>
+      </c>
+      <c r="FI5" t="n">
         <v>21.9</v>
       </c>
-      <c r="FI5" t="n">
+      <c r="FJ5" t="n">
         <v>21.7</v>
       </c>
-      <c r="FJ5" t="n">
+      <c r="FK5" t="n">
         <v>21.4</v>
       </c>
-      <c r="FK5" t="n">
+      <c r="FL5" t="n">
         <v>21.1</v>
       </c>
-      <c r="FL5" t="n">
+      <c r="FM5" t="n">
         <v>21</v>
       </c>
-      <c r="FM5" t="n">
+      <c r="FN5" t="n">
         <v>20.6</v>
       </c>
-      <c r="FN5" t="n">
+      <c r="FO5" t="n">
         <v>20.2</v>
       </c>
-      <c r="FO5" t="n">
+      <c r="FP5" t="n">
         <v>21.2</v>
       </c>
-      <c r="FP5" t="n">
+      <c r="FQ5" t="n">
         <v>16.8</v>
       </c>
-      <c r="FQ5" t="n">
+      <c r="FR5" t="n">
         <v>16.4</v>
       </c>
-      <c r="FR5" t="n">
+      <c r="FS5" t="n">
         <v>16.1</v>
       </c>
-      <c r="FS5" t="n">
+      <c r="FT5" t="n">
         <v>15.9</v>
       </c>
-      <c r="FT5" t="n">
+      <c r="FU5" t="n">
         <v>15.7</v>
       </c>
-      <c r="FU5" t="n">
+      <c r="FV5" t="n">
         <v>15.5</v>
       </c>
-      <c r="FV5" t="n">
+      <c r="FW5" t="n">
         <v>15.4</v>
       </c>
-      <c r="FW5" t="n">
+      <c r="FX5" t="n">
         <v>15.2</v>
       </c>
-      <c r="FX5" t="n">
+      <c r="FY5" t="n">
         <v>15.1</v>
       </c>
-      <c r="FY5" t="n">
+      <c r="FZ5" t="n">
         <v>14.9</v>
       </c>
-      <c r="FZ5" t="n">
+      <c r="GA5" t="n">
         <v>14.7</v>
       </c>
-      <c r="GA5" t="n">
+      <c r="GB5" t="n">
         <v>12.7</v>
       </c>
-      <c r="GB5" t="n">
+      <c r="GC5" t="n">
         <v>13.7</v>
-      </c>
-      <c r="GC5" t="n">
-        <v>13.6</v>
       </c>
       <c r="GD5" t="n">
         <v>13.6</v>
       </c>
       <c r="GE5" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="GF5" t="n">
         <v>13.5</v>
       </c>
       <c r="GG5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="GH5" t="n">
         <v>13.4</v>
       </c>
-      <c r="GH5" t="n">
+      <c r="GI5" t="n">
         <v>13.3</v>
       </c>
-      <c r="GI5" t="n">
+      <c r="GJ5" t="n">
         <v>13.2</v>
       </c>
-      <c r="GJ5" t="n">
+      <c r="GK5" t="n">
         <v>13</v>
       </c>
-      <c r="GK5" t="n">
+      <c r="GL5" t="n">
         <v>12.8</v>
       </c>
-      <c r="GL5" t="n">
+      <c r="GM5" t="n">
         <v>12.5</v>
       </c>
-      <c r="GM5" t="n">
+      <c r="GN5" t="n">
         <v>15.5</v>
-      </c>
-      <c r="GN5" t="n">
-        <v>12.9</v>
       </c>
       <c r="GO5" t="n">
         <v>12.9</v>
       </c>
       <c r="GP5" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="GQ5" t="n">
         <v>13</v>
@@ -6606,112 +6612,112 @@
         <v>13</v>
       </c>
       <c r="GS5" t="n">
+        <v>13</v>
+      </c>
+      <c r="GT5" t="n">
         <v>13.1</v>
-      </c>
-      <c r="GT5" t="n">
-        <v>13.2</v>
       </c>
       <c r="GU5" t="n">
         <v>13.2</v>
       </c>
       <c r="GV5" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="GW5" t="n">
         <v>13.3</v>
       </c>
-      <c r="GW5" t="n">
+      <c r="GX5" t="n">
         <v>13.7</v>
       </c>
-      <c r="GX5" t="n">
+      <c r="GY5" t="n">
         <v>13.6</v>
       </c>
-      <c r="GY5" t="n">
+      <c r="GZ5" t="n">
         <v>11.5</v>
       </c>
-      <c r="GZ5" t="n">
+      <c r="HA5" t="n">
         <v>13.3</v>
       </c>
-      <c r="HA5" t="n">
+      <c r="HB5" t="n">
         <v>13.2</v>
       </c>
-      <c r="HB5" t="n">
+      <c r="HC5" t="n">
         <v>13.1</v>
       </c>
-      <c r="HC5" t="n">
+      <c r="HD5" t="n">
         <v>13</v>
       </c>
-      <c r="HD5" t="n">
+      <c r="HE5" t="n">
         <v>12.9</v>
-      </c>
-      <c r="HE5" t="n">
-        <v>12.8</v>
       </c>
       <c r="HF5" t="n">
         <v>12.8</v>
       </c>
       <c r="HG5" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="HH5" t="n">
         <v>12.5</v>
       </c>
-      <c r="HH5" t="n">
+      <c r="HI5" t="n">
         <v>11.3</v>
       </c>
-      <c r="HI5" t="n">
+      <c r="HJ5" t="n">
         <v>10.7</v>
       </c>
-      <c r="HJ5" t="n">
+      <c r="HK5" t="n">
         <v>10.5</v>
       </c>
-      <c r="HK5" t="n">
+      <c r="HL5" t="n">
         <v>11.8</v>
       </c>
-      <c r="HL5" t="n">
+      <c r="HM5" t="n">
         <v>9.1</v>
       </c>
-      <c r="HM5" t="n">
+      <c r="HN5" t="n">
         <v>8.9</v>
       </c>
-      <c r="HN5" t="n">
+      <c r="HO5" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="HO5" t="n">
+      <c r="HP5" t="n">
         <v>8.6</v>
       </c>
-      <c r="HP5" t="n">
+      <c r="HQ5" t="n">
         <v>8.5</v>
       </c>
-      <c r="HQ5" t="n">
+      <c r="HR5" t="n">
         <v>8.300000000000001</v>
-      </c>
-      <c r="HR5" t="n">
-        <v>8</v>
       </c>
       <c r="HS5" t="n">
         <v>8</v>
       </c>
       <c r="HT5" t="n">
+        <v>8</v>
+      </c>
+      <c r="HU5" t="n">
         <v>8.9</v>
-      </c>
-      <c r="HU5" t="n">
-        <v>9.199999999999999</v>
       </c>
       <c r="HV5" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="HW5" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="HX5" t="n">
         <v>10</v>
-      </c>
-      <c r="HX5" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="HY5" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="HZ5" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="IA5" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="IB5" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="IC5" t="n">
         <v>8.6</v>
@@ -6723,19 +6729,19 @@
         <v>8.6</v>
       </c>
       <c r="IF5" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="IG5" t="n">
         <v>8.4</v>
       </c>
       <c r="IH5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="II5" t="n">
         <v>8.5</v>
       </c>
-      <c r="II5" t="n">
+      <c r="IJ5" t="n">
         <v>7.9</v>
-      </c>
-      <c r="IJ5" t="n">
-        <v>10.1</v>
       </c>
       <c r="IK5" t="n">
         <v>10.1</v>
@@ -6750,34 +6756,34 @@
         <v>10.1</v>
       </c>
       <c r="IO5" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="IP5" t="n">
         <v>10.2</v>
-      </c>
-      <c r="IP5" t="n">
-        <v>10.3</v>
       </c>
       <c r="IQ5" t="n">
         <v>10.3</v>
       </c>
       <c r="IR5" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="IS5" t="n">
         <v>10.1</v>
       </c>
-      <c r="IS5" t="n">
+      <c r="IT5" t="n">
         <v>10.3</v>
       </c>
-      <c r="IT5" t="n">
+      <c r="IU5" t="n">
         <v>10.6</v>
       </c>
-      <c r="IU5" t="n">
+      <c r="IV5" t="n">
         <v>12.5</v>
       </c>
-      <c r="IV5" t="n">
+      <c r="IW5" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="IW5" t="n">
+      <c r="IX5" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="IX5" t="n">
-        <v>9.9</v>
       </c>
       <c r="IY5" t="n">
         <v>9.9</v>
@@ -6786,27 +6792,29 @@
         <v>9.9</v>
       </c>
       <c r="JA5" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="JB5" t="n">
         <v>10</v>
       </c>
-      <c r="JB5" t="n">
+      <c r="JC5" t="n">
         <v>10.1</v>
       </c>
-      <c r="JC5" t="n">
+      <c r="JD5" t="n">
         <v>10.4</v>
       </c>
-      <c r="JD5" t="n">
+      <c r="JE5" t="n">
         <v>10.1</v>
       </c>
-      <c r="JE5" t="n">
+      <c r="JF5" t="n">
         <v>10.4</v>
       </c>
-      <c r="JF5" t="n">
+      <c r="JG5" t="n">
         <v>10.9</v>
       </c>
-      <c r="JG5" t="n">
+      <c r="JH5" t="n">
         <v>11.3</v>
       </c>
-      <c r="JH5" t="inlineStr"/>
       <c r="JI5" t="inlineStr"/>
       <c r="JJ5" t="inlineStr"/>
       <c r="JK5" t="inlineStr"/>
@@ -7010,6 +7018,7 @@
       <c r="RA5" t="inlineStr"/>
       <c r="RB5" t="inlineStr"/>
       <c r="RC5" t="inlineStr"/>
+      <c r="RD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -7019,363 +7028,363 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
         <v>16703.2</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>16030.8</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>13866.7</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>13902</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>12342.5</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>12425.2</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>14890.7</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>13214.4</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>12592.4</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>13699.7</v>
       </c>
-      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
         <v>16300.8</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>15190.3</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>13095</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>13376.4</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>12136.1</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>11351.3</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>13106.9</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>11664.2</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>10588.3</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>9984.299999999999</v>
       </c>
-      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="n">
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
         <v>15337.6</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>13964.7</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>12322.1</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>12835.4</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>11772.1</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>11412.1</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>13163.4</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>11693.8</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
         <v>11120.1</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>11952.5</v>
       </c>
-      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="n">
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>15084</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AP6" t="n">
         <v>13678.7</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AQ6" t="n">
         <v>12478.6</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AR6" t="n">
         <v>12761.7</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AS6" t="n">
         <v>11832.2</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AT6" t="n">
         <v>11419</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AU6" t="n">
         <v>12448.3</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AV6" t="n">
         <v>11476.7</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AW6" t="n">
         <v>11240.6</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AX6" t="n">
         <v>11831.8</v>
       </c>
-      <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="n">
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="n">
         <v>17409.4</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BB6" t="n">
         <v>15778.7</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BC6" t="n">
         <v>14373.8</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>14629.7</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BE6" t="n">
         <v>13229.4</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BF6" t="n">
         <v>12812.6</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BG6" t="n">
         <v>14222</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BH6" t="n">
         <v>12937.1</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BI6" t="n">
         <v>12253.3</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BJ6" t="n">
         <v>12873.3</v>
       </c>
-      <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
-      <c r="BL6" t="n">
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="n">
         <v>16945</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BN6" t="n">
         <v>14791.8</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BO6" t="n">
         <v>13507.7</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BP6" t="n">
         <v>13503.9</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BQ6" t="n">
         <v>12249.7</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BR6" t="n">
         <v>11805.7</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BS6" t="n">
         <v>13005.8</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BT6" t="n">
         <v>11884.9</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BU6" t="n">
         <v>11264.3</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BV6" t="n">
         <v>11717.1</v>
       </c>
-      <c r="BV6" t="inlineStr"/>
       <c r="BW6" t="inlineStr"/>
-      <c r="BX6" t="n">
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="n">
         <v>15367</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="BZ6" t="n">
         <v>13502.7</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="CA6" t="n">
         <v>12612.2</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CB6" t="n">
         <v>12484.1</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CC6" t="n">
         <v>11256.6</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CD6" t="n">
         <v>11005.3</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CE6" t="n">
         <v>12009.4</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CF6" t="n">
         <v>11180.1</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CG6" t="n">
         <v>10564.2</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CH6" t="n">
         <v>10833.5</v>
       </c>
-      <c r="CH6" t="inlineStr"/>
       <c r="CI6" t="inlineStr"/>
-      <c r="CJ6" t="n">
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="n">
         <v>14274.2</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="CL6" t="n">
         <v>11793.9</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="CM6" t="n">
         <v>11744.6</v>
       </c>
-      <c r="CM6" t="n">
+      <c r="CN6" t="n">
         <v>11581.8</v>
       </c>
-      <c r="CN6" t="n">
+      <c r="CO6" t="n">
         <v>10466.1</v>
       </c>
-      <c r="CO6" t="n">
+      <c r="CP6" t="n">
         <v>10359.9</v>
       </c>
-      <c r="CP6" t="n">
+      <c r="CQ6" t="n">
         <v>11102.8</v>
       </c>
-      <c r="CQ6" t="n">
+      <c r="CR6" t="n">
         <v>10559.8</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="CS6" t="n">
         <v>10009.6</v>
       </c>
-      <c r="CS6" t="n">
+      <c r="CT6" t="n">
         <v>10230.7</v>
       </c>
-      <c r="CT6" t="inlineStr"/>
       <c r="CU6" t="inlineStr"/>
-      <c r="CV6" t="n">
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="n">
         <v>12641.4</v>
       </c>
-      <c r="CW6" t="n">
+      <c r="CX6" t="n">
         <v>11055</v>
       </c>
-      <c r="CX6" t="n">
+      <c r="CY6" t="n">
         <v>10578.9</v>
       </c>
-      <c r="CY6" t="n">
+      <c r="CZ6" t="n">
         <v>10526</v>
       </c>
-      <c r="CZ6" t="n">
+      <c r="DA6" t="n">
         <v>9490.299999999999</v>
       </c>
-      <c r="DA6" t="n">
+      <c r="DB6" t="n">
         <v>9158.9</v>
       </c>
-      <c r="DB6" t="n">
+      <c r="DC6" t="n">
         <v>9764.4</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="DD6" t="n">
         <v>9371.1</v>
       </c>
-      <c r="DD6" t="n">
+      <c r="DE6" t="n">
         <v>8950.299999999999</v>
       </c>
-      <c r="DE6" t="n">
+      <c r="DF6" t="n">
         <v>9075.700000000001</v>
       </c>
-      <c r="DF6" t="inlineStr"/>
       <c r="DG6" t="inlineStr"/>
-      <c r="DH6" t="n">
+      <c r="DH6" t="inlineStr"/>
+      <c r="DI6" t="n">
         <v>10773.4</v>
       </c>
-      <c r="DI6" t="n">
+      <c r="DJ6" t="n">
         <v>9394.5</v>
       </c>
-      <c r="DJ6" t="n">
+      <c r="DK6" t="n">
         <v>9022.799999999999</v>
       </c>
-      <c r="DK6" t="n">
+      <c r="DL6" t="n">
         <v>8930.700000000001</v>
       </c>
-      <c r="DL6" t="n">
+      <c r="DM6" t="n">
         <v>8148.7</v>
       </c>
-      <c r="DM6" t="n">
+      <c r="DN6" t="n">
         <v>7812</v>
       </c>
-      <c r="DN6" t="n">
+      <c r="DO6" t="n">
         <v>8222.799999999999</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="DP6" t="n">
         <v>7922.5</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="DQ6" t="n">
         <v>7482.6</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="DR6" t="n">
         <v>7686</v>
       </c>
-      <c r="DR6" t="inlineStr"/>
       <c r="DS6" t="inlineStr"/>
-      <c r="DT6" t="n">
+      <c r="DT6" t="inlineStr"/>
+      <c r="DU6" t="n">
         <v>9053.4</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="DV6" t="n">
         <v>7744.8</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DW6" t="n">
         <v>7628.6</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DX6" t="n">
         <v>7549.6</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DY6" t="n">
         <v>6902.2</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DZ6" t="n">
         <v>6689.6</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EA6" t="n">
         <v>6834</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EB6" t="n">
         <v>6787.4</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EC6" t="n">
         <v>6418.2</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="ED6" t="n">
         <v>6323.2</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EE6" t="n">
         <v>5781.1</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EF6" t="n">
         <v>6942.5</v>
       </c>
-      <c r="EF6" t="inlineStr"/>
       <c r="EG6" t="inlineStr"/>
       <c r="EH6" t="inlineStr"/>
       <c r="EI6" t="inlineStr"/>
@@ -7711,6 +7720,7 @@
       <c r="RA6" t="inlineStr"/>
       <c r="RB6" t="inlineStr"/>
       <c r="RC6" t="inlineStr"/>
+      <c r="RD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -7718,384 +7728,384 @@
           <t>Retail Sales of Consumer Goods of Enterprises above Designated Size,Accumulated(100 million yuan)</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
         <v>27229.6</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
         <v>164148.1</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>147515.5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>131281</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>117587.9</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>103568.4</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>91259.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>78939.3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>63974.4</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>50752.8</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>38140</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>24374.5</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="n">
         <v>143322.9</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>127123.6</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>111887.7</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>98573.5</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>85316.89999999999</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>73332.10000000001</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>62374.8</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>49317.2</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>37607.7</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>27049.1</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>16949.8</v>
       </c>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="n">
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
         <v>148009.9</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>132639.1</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>118918.8</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>106691.9</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
         <v>93880.89999999999</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>82446.2</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AI7" t="n">
         <v>71124.2</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
         <v>57924</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
         <v>46211.9</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AL7" t="n">
         <v>35078.2</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AM7" t="n">
         <v>23096</v>
       </c>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="n">
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>145311.3</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AP7" t="n">
         <v>130829.9</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AQ7" t="n">
         <v>117177.5</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AR7" t="n">
         <v>104792.1</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AS7" t="n">
         <v>92367.7</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AT7" t="n">
         <v>81125.2</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AU7" t="n">
         <v>69937.60000000001</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AV7" t="n">
         <v>57517.7</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AW7" t="n">
         <v>46136.9</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AX7" t="n">
         <v>34941</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AY7" t="n">
         <v>23242</v>
       </c>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="n">
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="n">
         <v>160612.5</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BB7" t="n">
         <v>145752.6</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BC7" t="n">
         <v>131617.9</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>117750.5</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BE7" t="n">
         <v>103070</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BF7" t="n">
         <v>89820.7</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BG7" t="n">
         <v>76953</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BH7" t="n">
         <v>62689.3</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BI7" t="n">
         <v>49764.5</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BJ7" t="n">
         <v>37460.5</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BK7" t="n">
         <v>24679.7</v>
       </c>
-      <c r="BK7" t="inlineStr"/>
-      <c r="BL7" t="n">
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="n">
         <v>154286</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BN7" t="n">
         <v>137203.2</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BO7" t="n">
         <v>122312.3</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BP7" t="n">
         <v>108343.7</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BQ7" t="n">
         <v>95101</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BR7" t="n">
         <v>82920.89999999999</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BS7" t="n">
         <v>71075.10000000001</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BT7" t="n">
         <v>58010.4</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BU7" t="n">
         <v>46111.3</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BV7" t="n">
         <v>34625.5</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="BW7" t="n">
         <v>23080</v>
       </c>
-      <c r="BW7" t="inlineStr"/>
-      <c r="BX7" t="n">
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="n">
         <v>142558</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BZ7" t="n">
         <v>126906</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="CA7" t="n">
         <v>113833.2</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CB7" t="n">
         <v>101089.3</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CC7" t="n">
         <v>88576</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CD7" t="n">
         <v>77264.8</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="CE7" t="n">
         <v>66255.7</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="CF7" t="n">
         <v>54230</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CG7" t="n">
         <v>43014.6</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CH7" t="n">
         <v>32471.6</v>
       </c>
-      <c r="CH7" t="n">
+      <c r="CI7" t="n">
         <v>21840.4</v>
       </c>
-      <c r="CI7" t="inlineStr"/>
-      <c r="CJ7" t="n">
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="n">
         <v>133179.3</v>
       </c>
-      <c r="CK7" t="n">
+      <c r="CL7" t="n">
         <v>118450.5</v>
       </c>
-      <c r="CL7" t="n">
+      <c r="CM7" t="n">
         <v>106570.4</v>
       </c>
-      <c r="CM7" t="n">
+      <c r="CN7" t="n">
         <v>94232.8</v>
       </c>
-      <c r="CN7" t="n">
+      <c r="CO7" t="n">
         <v>83023.60000000001</v>
       </c>
-      <c r="CO7" t="n">
+      <c r="CP7" t="n">
         <v>72417.7</v>
       </c>
-      <c r="CP7" t="n">
+      <c r="CQ7" t="n">
         <v>62102.1</v>
       </c>
-      <c r="CQ7" t="n">
+      <c r="CR7" t="n">
         <v>50857</v>
       </c>
-      <c r="CR7" t="n">
+      <c r="CS7" t="n">
         <v>40248.5</v>
       </c>
-      <c r="CS7" t="n">
+      <c r="CT7" t="n">
         <v>30274.6</v>
       </c>
-      <c r="CT7" t="n">
+      <c r="CU7" t="n">
         <v>20132.7</v>
       </c>
-      <c r="CU7" t="inlineStr"/>
-      <c r="CV7" t="n">
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="n">
         <v>118884.7</v>
       </c>
-      <c r="CW7" t="n">
+      <c r="CX7" t="n">
         <v>106233.5</v>
       </c>
-      <c r="CX7" t="n">
+      <c r="CY7" t="n">
         <v>95158.60000000001</v>
       </c>
-      <c r="CY7" t="n">
+      <c r="CZ7" t="n">
         <v>84570.5</v>
       </c>
-      <c r="CZ7" t="n">
+      <c r="DA7" t="n">
         <v>73935.3</v>
       </c>
-      <c r="DA7" t="n">
+      <c r="DB7" t="n">
         <v>64416.5</v>
       </c>
-      <c r="DB7" t="n">
+      <c r="DC7" t="n">
         <v>55251.1</v>
       </c>
-      <c r="DC7" t="n">
+      <c r="DD7" t="n">
         <v>45392.4</v>
       </c>
-      <c r="DD7" t="n">
+      <c r="DE7" t="n">
         <v>36004.9</v>
       </c>
-      <c r="DE7" t="n">
+      <c r="DF7" t="n">
         <v>27045.3</v>
       </c>
-      <c r="DF7" t="n">
+      <c r="DG7" t="n">
         <v>18001.4</v>
       </c>
-      <c r="DG7" t="inlineStr"/>
-      <c r="DH7" t="n">
+      <c r="DH7" t="inlineStr"/>
+      <c r="DI7" t="n">
         <v>101129.3</v>
       </c>
-      <c r="DI7" t="n">
+      <c r="DJ7" t="n">
         <v>90346.60000000001</v>
       </c>
-      <c r="DJ7" t="n">
+      <c r="DK7" t="n">
         <v>80600.7</v>
       </c>
-      <c r="DK7" t="n">
+      <c r="DL7" t="n">
         <v>71580.10000000001</v>
       </c>
-      <c r="DL7" t="n">
+      <c r="DM7" t="n">
         <v>62621.5</v>
       </c>
-      <c r="DM7" t="n">
+      <c r="DN7" t="n">
         <v>54264</v>
       </c>
-      <c r="DN7" t="n">
+      <c r="DO7" t="n">
         <v>46592.1</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="DP7" t="n">
         <v>38321.3</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="DQ7" t="n">
         <v>30412.7</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="DR7" t="n">
         <v>22920.6</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="DS7" t="n">
         <v>15238.3</v>
       </c>
-      <c r="DS7" t="inlineStr"/>
-      <c r="DT7" t="n">
+      <c r="DT7" t="inlineStr"/>
+      <c r="DU7" t="n">
         <v>84608.7</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="DV7" t="n">
         <v>75547.5</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DW7" t="n">
         <v>67791.7</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DX7" t="n">
         <v>60165.4</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DY7" t="n">
         <v>52614</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DZ7" t="n">
         <v>45721.8</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EA7" t="n">
         <v>390434.2</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EB7" t="n">
         <v>32221.8</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EC7" t="n">
         <v>25434</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="ED7" t="n">
         <v>19039.5</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EE7" t="n">
         <v>12723.5</v>
       </c>
-      <c r="EE7" t="inlineStr"/>
       <c r="EF7" t="inlineStr"/>
       <c r="EG7" t="inlineStr"/>
       <c r="EH7" t="inlineStr"/>
@@ -8432,6 +8442,7 @@
       <c r="RA7" t="inlineStr"/>
       <c r="RB7" t="inlineStr"/>
       <c r="RC7" t="inlineStr"/>
+      <c r="RD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -8441,363 +8452,363 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
         <v>1.6</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4.2</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>4.6</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>2.8</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.5</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>8.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>13.2</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>12.7</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>18.5</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>38.6</v>
       </c>
-      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="n">
         <v>6.4</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>7.1</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>5.3</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>4.4</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>2.2</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>-0.4</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>1.3</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>-3.2</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>-15</v>
       </c>
-      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="n">
-        <v>4.4</v>
-      </c>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
         <v>4.4</v>
       </c>
       <c r="AD8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE8" t="n">
         <v>1.2</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>3.1</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AG8" t="n">
         <v>2</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
         <v>2.9</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
         <v>5.1</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AK8" t="n">
         <v>2</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AL8" t="n">
         <v>5.1</v>
       </c>
-      <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="n">
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>2.4</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AP8" t="n">
         <v>2.1</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AQ8" t="n">
         <v>3.7</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AR8" t="n">
         <v>5.7</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AS8" t="n">
         <v>6</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AT8" t="n">
         <v>5.7</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AU8" t="n">
         <v>6.5</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AV8" t="n">
         <v>5.5</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AW8" t="n">
         <v>7.8</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AX8" t="n">
         <v>9</v>
       </c>
-      <c r="AX8" t="inlineStr"/>
       <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="n">
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="n">
         <v>6.7</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BB8" t="n">
         <v>7.8</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BC8" t="n">
         <v>7.2</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BD8" t="n">
         <v>7.8</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BE8" t="n">
         <v>7.5</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BF8" t="n">
         <v>8.6</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BG8" t="n">
         <v>10.2</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>9.199999999999999</v>
       </c>
       <c r="BH8" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="BI8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BJ8" t="n">
         <v>10</v>
       </c>
-      <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="n">
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BN8" t="n">
         <v>9.5</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BO8" t="n">
         <v>7.5</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BP8" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BQ8" t="n">
         <v>8.5</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BR8" t="n">
         <v>7.3</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BS8" t="n">
         <v>8.1</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BT8" t="n">
         <v>6.5</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BU8" t="n">
         <v>6.7</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="BV8" t="n">
         <v>8.6</v>
       </c>
-      <c r="BV8" t="inlineStr"/>
       <c r="BW8" t="inlineStr"/>
-      <c r="BX8" t="n">
+      <c r="BX8" t="inlineStr"/>
+      <c r="BY8" t="n">
         <v>8.6</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="BZ8" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="BZ8" t="n">
+      <c r="CA8" t="n">
         <v>8.4</v>
       </c>
-      <c r="CA8" t="n">
+      <c r="CB8" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="CB8" t="n">
+      <c r="CC8" t="n">
         <v>8</v>
       </c>
-      <c r="CC8" t="n">
+      <c r="CD8" t="n">
         <v>7.3</v>
       </c>
-      <c r="CD8" t="n">
+      <c r="CE8" t="n">
         <v>7.8</v>
       </c>
-      <c r="CE8" t="n">
+      <c r="CF8" t="n">
         <v>6.8</v>
       </c>
-      <c r="CF8" t="n">
+      <c r="CG8" t="n">
         <v>6.7</v>
       </c>
-      <c r="CG8" t="n">
+      <c r="CH8" t="n">
         <v>7.1</v>
       </c>
-      <c r="CH8" t="inlineStr"/>
       <c r="CI8" t="inlineStr"/>
-      <c r="CJ8" t="n">
+      <c r="CJ8" t="inlineStr"/>
+      <c r="CK8" t="n">
         <v>9.4</v>
       </c>
-      <c r="CK8" t="n">
+      <c r="CL8" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="CL8" t="n">
+      <c r="CM8" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="CM8" t="n">
+      <c r="CN8" t="n">
         <v>8.5</v>
       </c>
-      <c r="CN8" t="n">
+      <c r="CO8" t="n">
         <v>9</v>
       </c>
-      <c r="CO8" t="n">
+      <c r="CP8" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="CP8" t="n">
+      <c r="CQ8" t="n">
         <v>10.2</v>
       </c>
-      <c r="CQ8" t="n">
+      <c r="CR8" t="n">
         <v>9.9</v>
       </c>
-      <c r="CR8" t="n">
+      <c r="CS8" t="n">
         <v>9.4</v>
       </c>
-      <c r="CS8" t="n">
+      <c r="CT8" t="n">
         <v>10.2</v>
       </c>
-      <c r="CT8" t="inlineStr"/>
       <c r="CU8" t="inlineStr"/>
-      <c r="CV8" t="n">
+      <c r="CV8" t="inlineStr"/>
+      <c r="CW8" t="n">
         <v>13</v>
       </c>
-      <c r="CW8" t="n">
+      <c r="CX8" t="n">
         <v>13.1</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>12.4</v>
       </c>
       <c r="CY8" t="n">
         <v>12.4</v>
       </c>
       <c r="CZ8" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="DA8" t="n">
         <v>11.5</v>
       </c>
-      <c r="DA8" t="n">
+      <c r="DB8" t="n">
         <v>11.2</v>
       </c>
-      <c r="DB8" t="n">
+      <c r="DC8" t="n">
         <v>11.5</v>
       </c>
-      <c r="DC8" t="n">
+      <c r="DD8" t="n">
         <v>10.7</v>
       </c>
-      <c r="DD8" t="n">
+      <c r="DE8" t="n">
         <v>11.5</v>
       </c>
-      <c r="DE8" t="n">
+      <c r="DF8" t="n">
         <v>10.5</v>
       </c>
-      <c r="DF8" t="inlineStr"/>
       <c r="DG8" t="inlineStr"/>
-      <c r="DH8" t="n">
+      <c r="DH8" t="inlineStr"/>
+      <c r="DI8" t="n">
         <v>15.3</v>
       </c>
-      <c r="DI8" t="n">
+      <c r="DJ8" t="n">
         <v>15.1</v>
       </c>
-      <c r="DJ8" t="n">
+      <c r="DK8" t="n">
         <v>14.8</v>
       </c>
-      <c r="DK8" t="n">
+      <c r="DL8" t="n">
         <v>14.7</v>
       </c>
-      <c r="DL8" t="n">
+      <c r="DM8" t="n">
         <v>13.1</v>
       </c>
-      <c r="DM8" t="n">
+      <c r="DN8" t="n">
         <v>13</v>
-      </c>
-      <c r="DN8" t="n">
-        <v>14</v>
       </c>
       <c r="DO8" t="n">
         <v>14</v>
       </c>
       <c r="DP8" t="n">
+        <v>14</v>
+      </c>
+      <c r="DQ8" t="n">
         <v>14.6</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="DR8" t="n">
         <v>16.9</v>
       </c>
-      <c r="DR8" t="inlineStr"/>
       <c r="DS8" t="inlineStr"/>
-      <c r="DT8" t="n">
+      <c r="DT8" t="inlineStr"/>
+      <c r="DU8" t="n">
         <v>23.2</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="DV8" t="n">
         <v>21.5</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="DW8" t="n">
         <v>21.3</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DX8" t="n">
         <v>24.7</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DY8" t="n">
         <v>22.1</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="DZ8" t="n">
         <v>23.3</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EA8" t="n">
         <v>25.4</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EB8" t="n">
         <v>22.7</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EC8" t="n">
         <v>23.4</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="ED8" t="n">
         <v>24.7</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EE8" t="n">
         <v>13</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EF8" t="n">
         <v>27.8</v>
       </c>
-      <c r="EF8" t="inlineStr"/>
       <c r="EG8" t="inlineStr"/>
       <c r="EH8" t="inlineStr"/>
       <c r="EI8" t="inlineStr"/>
@@ -9133,6 +9144,7 @@
       <c r="RA8" t="inlineStr"/>
       <c r="RB8" t="inlineStr"/>
       <c r="RC8" t="inlineStr"/>
+      <c r="RD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -9140,384 +9152,384 @@
           <t>Retail Sales of Consumer Goods of Enterprises above Designated Size,Accumulated Growth Rate(%)</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
         <v>9.1</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
         <v>13.4</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>14.9</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>16.4</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>17.9</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>20.3</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>23.6</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>26.4</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>29.9</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>35.3</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>42</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>43.9</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="n">
         <v>-1.9</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>-2.8</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>-4.2</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-5.5</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>-7</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-8.6</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>-10.3</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-12.7</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>-16.3</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>-20.5</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>-23.4</v>
       </c>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="n">
         <v>3.9</v>
       </c>
       <c r="AD9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE9" t="n">
         <v>3.8</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
         <v>4.1</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AG9" t="n">
         <v>4.3</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AH9" t="n">
         <v>4.6</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AI9" t="n">
         <v>4.9</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AJ9" t="n">
         <v>3.9</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AK9" t="n">
         <v>3.5</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AL9" t="n">
         <v>4.1</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AM9" t="n">
         <v>3.5</v>
       </c>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="n">
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>5.7</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
         <v>6.1</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AQ9" t="n">
         <v>6.6</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AR9" t="n">
         <v>6.9</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AS9" t="n">
         <v>7.1</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AT9" t="n">
         <v>7.3</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AU9" t="n">
         <v>7.5</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AV9" t="n">
         <v>7.8</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AW9" t="n">
         <v>8.4</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AX9" t="n">
         <v>8.5</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AY9" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="n">
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="n">
         <v>8.1</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>8.300000000000001</v>
       </c>
       <c r="BB9" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="BC9" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BD9" t="n">
         <v>8.5</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BE9" t="n">
         <v>8.6</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>8.699999999999999</v>
       </c>
       <c r="BF9" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="BG9" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BH9" t="n">
         <v>8.4</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BI9" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BJ9" t="n">
         <v>7.9</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BK9" t="n">
         <v>6.8</v>
       </c>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="n">
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="n">
         <v>8.1</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BN9" t="n">
         <v>7.9</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>7.8</v>
       </c>
       <c r="BO9" t="n">
         <v>7.8</v>
       </c>
       <c r="BP9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BQ9" t="n">
         <v>7.6</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>7.5</v>
       </c>
       <c r="BR9" t="n">
         <v>7.5</v>
       </c>
       <c r="BS9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BT9" t="n">
         <v>7.4</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="BU9" t="n">
         <v>7.7</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="BV9" t="n">
         <v>8</v>
       </c>
-      <c r="BV9" t="n">
+      <c r="BW9" t="n">
         <v>7.6</v>
       </c>
-      <c r="BW9" t="inlineStr"/>
-      <c r="BX9" t="n">
+      <c r="BX9" t="inlineStr"/>
+      <c r="BY9" t="n">
         <v>7.8</v>
       </c>
-      <c r="BY9" t="n">
+      <c r="BZ9" t="n">
         <v>7.7</v>
       </c>
-      <c r="BZ9" t="n">
+      <c r="CA9" t="n">
         <v>7.6</v>
       </c>
-      <c r="CA9" t="n">
+      <c r="CB9" t="n">
         <v>7.5</v>
       </c>
-      <c r="CB9" t="n">
+      <c r="CC9" t="n">
         <v>7.4</v>
       </c>
-      <c r="CC9" t="n">
+      <c r="CD9" t="n">
         <v>7.3</v>
       </c>
-      <c r="CD9" t="n">
+      <c r="CE9" t="n">
         <v>7.4</v>
       </c>
-      <c r="CE9" t="n">
+      <c r="CF9" t="n">
         <v>7.3</v>
       </c>
-      <c r="CF9" t="n">
+      <c r="CG9" t="n">
         <v>7.5</v>
       </c>
-      <c r="CG9" t="n">
+      <c r="CH9" t="n">
         <v>7.8</v>
       </c>
-      <c r="CH9" t="n">
+      <c r="CI9" t="n">
         <v>8.1</v>
       </c>
-      <c r="CI9" t="inlineStr"/>
-      <c r="CJ9" t="n">
-        <v>9.300000000000001</v>
-      </c>
+      <c r="CJ9" t="inlineStr"/>
       <c r="CK9" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="CL9" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="CM9" t="n">
         <v>9.4</v>
       </c>
-      <c r="CM9" t="n">
+      <c r="CN9" t="n">
         <v>9.5</v>
       </c>
-      <c r="CN9" t="n">
+      <c r="CO9" t="n">
         <v>9.699999999999999</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>9.800000000000001</v>
       </c>
       <c r="CP9" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="CQ9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="CR9" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="CR9" t="n">
+      <c r="CS9" t="n">
         <v>9.6</v>
       </c>
-      <c r="CS9" t="n">
+      <c r="CT9" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="CT9" t="n">
+      <c r="CU9" t="n">
         <v>9.5</v>
       </c>
-      <c r="CU9" t="inlineStr"/>
-      <c r="CV9" t="n">
+      <c r="CV9" t="inlineStr"/>
+      <c r="CW9" t="n">
         <v>11.6</v>
       </c>
-      <c r="CW9" t="n">
+      <c r="CX9" t="n">
         <v>11.4</v>
       </c>
-      <c r="CX9" t="n">
+      <c r="CY9" t="n">
         <v>11.2</v>
       </c>
-      <c r="CY9" t="n">
+      <c r="CZ9" t="n">
         <v>11</v>
       </c>
-      <c r="CZ9" t="n">
+      <c r="DA9" t="n">
         <v>10.8</v>
       </c>
-      <c r="DA9" t="n">
+      <c r="DB9" t="n">
         <v>10.7</v>
-      </c>
-      <c r="DB9" t="n">
-        <v>10.5</v>
       </c>
       <c r="DC9" t="n">
         <v>10.5</v>
       </c>
       <c r="DD9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="DE9" t="n">
         <v>10.4</v>
       </c>
-      <c r="DE9" t="n">
+      <c r="DF9" t="n">
         <v>10.3</v>
       </c>
-      <c r="DF9" t="n">
+      <c r="DG9" t="n">
         <v>10.2</v>
       </c>
-      <c r="DG9" t="inlineStr"/>
-      <c r="DH9" t="n">
+      <c r="DH9" t="inlineStr"/>
+      <c r="DI9" t="n">
         <v>14.6</v>
-      </c>
-      <c r="DI9" t="n">
-        <v>14.5</v>
       </c>
       <c r="DJ9" t="n">
         <v>14.5</v>
       </c>
       <c r="DK9" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="DL9" t="n">
         <v>14.4</v>
       </c>
       <c r="DM9" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="DN9" t="n">
         <v>14.6</v>
       </c>
-      <c r="DN9" t="n">
+      <c r="DO9" t="n">
         <v>14.9</v>
       </c>
-      <c r="DO9" t="n">
+      <c r="DP9" t="n">
         <v>15.1</v>
       </c>
-      <c r="DP9" t="n">
+      <c r="DQ9" t="n">
         <v>15.3</v>
       </c>
-      <c r="DQ9" t="n">
+      <c r="DR9" t="n">
         <v>15.6</v>
       </c>
-      <c r="DR9" t="n">
+      <c r="DS9" t="n">
         <v>14.9</v>
       </c>
-      <c r="DS9" t="inlineStr"/>
-      <c r="DT9" t="n">
+      <c r="DT9" t="inlineStr"/>
+      <c r="DU9" t="n">
         <v>22.9</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="DV9" t="n">
         <v>22.8</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="DW9" t="n">
         <v>23</v>
-      </c>
-      <c r="DW9" t="n">
-        <v>23.5</v>
       </c>
       <c r="DX9" t="n">
         <v>23.5</v>
       </c>
       <c r="DY9" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="DZ9" t="n">
         <v>23.7</v>
       </c>
       <c r="EA9" t="n">
-        <v>22.9</v>
+        <v>23.7</v>
       </c>
       <c r="EB9" t="n">
         <v>22.9</v>
       </c>
       <c r="EC9" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="ED9" t="n">
         <v>22.5</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EE9" t="n">
         <v>20.7</v>
       </c>
-      <c r="EE9" t="inlineStr"/>
       <c r="EF9" t="inlineStr"/>
       <c r="EG9" t="inlineStr"/>
       <c r="EH9" t="inlineStr"/>
@@ -9854,6 +9866,7 @@
       <c r="RA9" t="inlineStr"/>
       <c r="RB9" t="inlineStr"/>
       <c r="RC9" t="inlineStr"/>
+      <c r="RD9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
